--- a/hbpSampling/subsampleSortExperiments/hbp_d11SortExperiment2023_data.xlsx
+++ b/hbpSampling/subsampleSortExperiments/hbp_d11SortExperiment2023_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmeier/Documents/gitRepositories/neon-plant-sampling/hbpSampling/subsampleSortExperiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pajaro/Documents/workDocuments/gitRepositories/neon-plant-sampling/hbpSampling/subsampleSortExperiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79DCB1-1071-A448-AAB7-0F96FC89A16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB7D757-D613-7747-B3D9-90DBDC51F1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22120" yWindow="500" windowWidth="25040" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="128">
   <si>
     <t>Data Sheet: D11 HBP sorting experiment for non-peak biomass clip harvest</t>
   </si>
@@ -373,12 +373,141 @@
   <si>
     <t>CLBJ-030-196</t>
   </si>
+  <si>
+    <t>EventID: OAES WEEK 24 (grazing and peak 1)</t>
+  </si>
+  <si>
+    <t>OAES_046_172</t>
+  </si>
+  <si>
+    <t>OAES_046_198</t>
+  </si>
+  <si>
+    <t>OAES_047_007</t>
+  </si>
+  <si>
+    <t>OAES_047_064</t>
+  </si>
+  <si>
+    <t>OAES_048_159</t>
+  </si>
+  <si>
+    <t>OAES_048_188</t>
+  </si>
+  <si>
+    <t>OAES_049_065</t>
+  </si>
+  <si>
+    <t>OAES_049_178</t>
+  </si>
+  <si>
+    <t>OAES_050_083</t>
+  </si>
+  <si>
+    <t>OAES_050_158</t>
+  </si>
+  <si>
+    <t>OAES_051_029</t>
+  </si>
+  <si>
+    <t>OAES_051_074</t>
+  </si>
+  <si>
+    <t>OAES_052_103</t>
+  </si>
+  <si>
+    <t>OAES_052_157</t>
+  </si>
+  <si>
+    <t>OAES_053_066</t>
+  </si>
+  <si>
+    <t>OAES_053_203</t>
+  </si>
+  <si>
+    <t>OAES_054_057</t>
+  </si>
+  <si>
+    <t>OAES_054_174</t>
+  </si>
+  <si>
+    <t>OAES_056_054</t>
+  </si>
+  <si>
+    <t>OAES_056_136</t>
+  </si>
+  <si>
+    <t>OAES_046_024</t>
+  </si>
+  <si>
+    <t>OAES_047_012</t>
+  </si>
+  <si>
+    <t>OAES_047_014</t>
+  </si>
+  <si>
+    <t>OAES_048_135</t>
+  </si>
+  <si>
+    <t>OAES_048_202</t>
+  </si>
+  <si>
+    <t>OAES_049_013</t>
+  </si>
+  <si>
+    <t>OAES_049_048</t>
+  </si>
+  <si>
+    <t>OAES_050_064</t>
+  </si>
+  <si>
+    <t>OAES_050_142</t>
+  </si>
+  <si>
+    <t>OAES_051_053</t>
+  </si>
+  <si>
+    <t>OAES_051_192</t>
+  </si>
+  <si>
+    <t>OAES_052_116</t>
+  </si>
+  <si>
+    <t>OAES_052_173</t>
+  </si>
+  <si>
+    <t>OAES_053_062</t>
+  </si>
+  <si>
+    <t>OAES_053_205</t>
+  </si>
+  <si>
+    <t>OAES_054_047</t>
+  </si>
+  <si>
+    <t>OAES_054_093</t>
+  </si>
+  <si>
+    <t>OAES_056_100</t>
+  </si>
+  <si>
+    <t>OAES_056_190</t>
+  </si>
+  <si>
+    <t>EventID: OAES Week 36</t>
+  </si>
+  <si>
+    <t>HBP.2023.OAES.24</t>
+  </si>
+  <si>
+    <t>HBP.2023.OAES.36</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,8 +616,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +975,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -886,35 +1027,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -936,6 +1050,132 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
@@ -986,7 +1226,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1262,16 +1513,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30:Q46"/>
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N81" sqref="N81:Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="2" customWidth="1"/>
     <col min="4" max="8" width="8.83203125" style="2" customWidth="1"/>
@@ -1301,7 +1552,7 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="10"/>
@@ -1326,25 +1577,25 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="39" t="s">
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="108"/>
       <c r="M3" s="20"/>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:18" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2536,7 +2787,7 @@
       <c r="R26" s="38"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="38"/>
@@ -2562,25 +2813,25 @@
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="49" t="s">
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="108"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
       <c r="R28" s="38"/>
     </row>
     <row r="29" spans="1:18" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -2635,127 +2886,127 @@
       <c r="Q29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="50" t="s">
+      <c r="R29" s="41" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="42">
         <v>20230822</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="43">
         <v>24.21</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="44">
         <f t="shared" ref="E30:E46" si="8">IF(ISNUMBER(D30),D30*0.1,"N/A")</f>
         <v>2.4210000000000003</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="45">
         <f t="shared" ref="F30:F46" si="9">IF(ISNUMBER(D30),D30*0.15,"N/A")</f>
         <v>3.6315</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="46">
         <f t="shared" ref="G30:G46" si="10">IF(ISNUMBER(D30),D30*0.25,"N/A")</f>
         <v>6.0525000000000002</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="47">
         <f t="shared" ref="H30:H46" si="11">IF(ISNUMBER(D30),D30*0.5,"N/A")</f>
         <v>12.105</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="48">
         <v>2.42</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="49">
         <v>3.63</v>
       </c>
-      <c r="K30" s="59">
+      <c r="K30" s="50">
         <v>6.05</v>
       </c>
-      <c r="L30" s="60">
+      <c r="L30" s="51">
         <v>11.75</v>
       </c>
-      <c r="M30" s="58">
+      <c r="M30" s="49">
         <f>IF((OR(ISBLANK(N30),ISBLANK(O30),ISBLANK(P30),ISBLANK(Q30))),"N/A", R30)</f>
         <v>17.82</v>
       </c>
-      <c r="N30" s="58">
+      <c r="N30" s="49">
         <v>1.86</v>
       </c>
-      <c r="O30" s="59">
+      <c r="O30" s="50">
         <v>2.82</v>
       </c>
-      <c r="P30" s="59">
+      <c r="P30" s="50">
         <v>4.4400000000000004</v>
       </c>
-      <c r="Q30" s="59">
+      <c r="Q30" s="50">
         <v>8.6999999999999993</v>
       </c>
-      <c r="R30" s="61">
+      <c r="R30" s="52">
         <f t="shared" ref="R30:R46" si="12">SUM(N30:Q30)</f>
         <v>17.82</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="53">
         <v>20230822</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="54">
         <v>5.6</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="55">
         <f t="shared" si="8"/>
         <v>0.55999999999999994</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="56">
         <f t="shared" si="9"/>
         <v>0.84</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="57">
         <f t="shared" si="10"/>
         <v>1.4</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="58">
         <f t="shared" si="11"/>
         <v>2.8</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="55">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J31" s="65">
+      <c r="J31" s="56">
         <v>0.84</v>
       </c>
-      <c r="K31" s="66">
+      <c r="K31" s="57">
         <v>1.4</v>
       </c>
-      <c r="L31" s="67">
+      <c r="L31" s="58">
         <v>2.69</v>
       </c>
-      <c r="M31" s="65">
-        <f>IF((R31=0),"N/A", R31)</f>
+      <c r="M31" s="56">
+        <f t="shared" ref="M31:M41" si="13">IF((R31=0),"N/A", R31)</f>
         <v>4.12</v>
       </c>
-      <c r="N31" s="65">
+      <c r="N31" s="56">
         <v>0.37</v>
       </c>
-      <c r="O31" s="66">
+      <c r="O31" s="57">
         <v>0.6</v>
       </c>
-      <c r="P31" s="66">
+      <c r="P31" s="57">
         <v>1.03</v>
       </c>
-      <c r="Q31" s="66">
+      <c r="Q31" s="57">
         <v>2.12</v>
       </c>
       <c r="R31" s="38">
@@ -2764,122 +3015,122 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="42">
         <v>20230821</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="60">
         <v>13</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="44">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F32" s="45">
         <f t="shared" si="9"/>
         <v>1.95</v>
       </c>
-      <c r="G32" s="55">
+      <c r="G32" s="46">
         <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="47">
         <f t="shared" si="11"/>
         <v>6.5</v>
       </c>
-      <c r="I32" s="53">
+      <c r="I32" s="44">
         <v>1.3</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="45">
         <v>1.95</v>
       </c>
-      <c r="K32" s="55">
+      <c r="K32" s="46">
         <v>3.25</v>
       </c>
-      <c r="L32" s="56">
+      <c r="L32" s="47">
         <v>6.28</v>
       </c>
-      <c r="M32" s="54">
-        <f>IF((R32=0),"N/A", R32)</f>
+      <c r="M32" s="45">
+        <f t="shared" si="13"/>
         <v>8.41</v>
       </c>
-      <c r="N32" s="54">
+      <c r="N32" s="45">
         <v>0.67</v>
       </c>
-      <c r="O32" s="55">
+      <c r="O32" s="46">
         <v>1.2</v>
       </c>
-      <c r="P32" s="55">
+      <c r="P32" s="46">
         <v>2.35</v>
       </c>
-      <c r="Q32" s="55">
+      <c r="Q32" s="46">
         <v>4.1900000000000004</v>
       </c>
-      <c r="R32" s="61">
+      <c r="R32" s="52">
         <f t="shared" si="12"/>
         <v>8.41</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="61">
         <v>20230821</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="54">
         <v>16.010000000000002</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="55">
         <f t="shared" si="8"/>
         <v>1.6010000000000002</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="56">
         <f t="shared" si="9"/>
         <v>2.4015</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="57">
         <f t="shared" si="10"/>
         <v>4.0025000000000004</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="58">
         <f t="shared" si="11"/>
         <v>8.0050000000000008</v>
       </c>
-      <c r="I33" s="64">
+      <c r="I33" s="55">
         <v>1.6</v>
       </c>
-      <c r="J33" s="65">
+      <c r="J33" s="56">
         <v>2.4</v>
       </c>
-      <c r="K33" s="66">
+      <c r="K33" s="57">
         <v>4</v>
       </c>
-      <c r="L33" s="67">
+      <c r="L33" s="58">
         <v>7.76</v>
       </c>
-      <c r="M33" s="65">
-        <f>IF((R33=0),"N/A", R33)</f>
+      <c r="M33" s="56">
+        <f t="shared" si="13"/>
         <v>11.65</v>
       </c>
-      <c r="N33" s="65">
+      <c r="N33" s="56">
         <v>1.28</v>
       </c>
-      <c r="O33" s="66">
+      <c r="O33" s="57">
         <v>1.74</v>
       </c>
-      <c r="P33" s="66">
+      <c r="P33" s="57">
         <v>2.93</v>
       </c>
-      <c r="Q33" s="66">
+      <c r="Q33" s="57">
         <v>5.7</v>
       </c>
       <c r="R33" s="38">
@@ -2888,122 +3139,122 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="42">
         <v>20230821</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="60">
         <v>24.63</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="44">
         <f t="shared" si="8"/>
         <v>2.4630000000000001</v>
       </c>
-      <c r="F34" s="54">
+      <c r="F34" s="45">
         <f t="shared" si="9"/>
         <v>3.6944999999999997</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="46">
         <f t="shared" si="10"/>
         <v>6.1574999999999998</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="47">
         <f t="shared" si="11"/>
         <v>12.315</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="44">
         <v>2.46</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="45">
         <v>3.69</v>
       </c>
-      <c r="K34" s="55">
+      <c r="K34" s="46">
         <v>6.16</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="47">
         <v>11.95</v>
       </c>
-      <c r="M34" s="54">
-        <f>IF((R34=0),"N/A", R34)</f>
+      <c r="M34" s="45">
+        <f t="shared" si="13"/>
         <v>16.509999999999998</v>
       </c>
-      <c r="N34" s="54">
+      <c r="N34" s="45">
         <v>1.88</v>
       </c>
-      <c r="O34" s="55">
+      <c r="O34" s="46">
         <v>2.6</v>
       </c>
-      <c r="P34" s="55">
+      <c r="P34" s="46">
         <v>4.3499999999999996</v>
       </c>
-      <c r="Q34" s="55">
+      <c r="Q34" s="46">
         <v>7.68</v>
       </c>
-      <c r="R34" s="61">
+      <c r="R34" s="52">
         <f t="shared" si="12"/>
         <v>16.509999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="53">
         <v>20230821</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="54">
         <v>10.29</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="55">
         <f t="shared" si="8"/>
         <v>1.0289999999999999</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="56">
         <f t="shared" si="9"/>
         <v>1.5434999999999999</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="57">
         <f t="shared" si="10"/>
         <v>2.5724999999999998</v>
       </c>
-      <c r="H35" s="67">
+      <c r="H35" s="58">
         <f t="shared" si="11"/>
         <v>5.1449999999999996</v>
       </c>
-      <c r="I35" s="64">
+      <c r="I35" s="55">
         <v>1.03</v>
       </c>
-      <c r="J35" s="65">
+      <c r="J35" s="56">
         <v>1.54</v>
       </c>
-      <c r="K35" s="66">
+      <c r="K35" s="57">
         <v>2.57</v>
       </c>
-      <c r="L35" s="67">
+      <c r="L35" s="58">
         <v>4.95</v>
       </c>
-      <c r="M35" s="65">
-        <f>IF((R35=0),"N/A", R35)</f>
+      <c r="M35" s="56">
+        <f t="shared" si="13"/>
         <v>7.74</v>
       </c>
-      <c r="N35" s="65">
+      <c r="N35" s="56">
         <v>0.84</v>
       </c>
-      <c r="O35" s="66">
+      <c r="O35" s="57">
         <v>1.22</v>
       </c>
-      <c r="P35" s="66">
+      <c r="P35" s="57">
         <v>2.08</v>
       </c>
-      <c r="Q35" s="66">
+      <c r="Q35" s="57">
         <v>3.6</v>
       </c>
       <c r="R35" s="38">
@@ -3012,123 +3263,123 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="59">
         <v>20230823</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="60">
         <v>21.95</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="44">
         <f t="shared" si="8"/>
         <v>2.1949999999999998</v>
       </c>
-      <c r="F36" s="54">
+      <c r="F36" s="45">
         <f t="shared" si="9"/>
         <v>3.2925</v>
       </c>
-      <c r="G36" s="55">
+      <c r="G36" s="46">
         <f t="shared" si="10"/>
         <v>5.4874999999999998</v>
       </c>
-      <c r="H36" s="56">
+      <c r="H36" s="47">
         <f t="shared" si="11"/>
         <v>10.975</v>
       </c>
-      <c r="I36" s="53">
+      <c r="I36" s="44">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J36" s="54">
+      <c r="J36" s="45">
         <v>3.29</v>
       </c>
-      <c r="K36" s="55">
+      <c r="K36" s="46">
         <v>5.49</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="47">
         <v>10.66</v>
       </c>
-      <c r="M36" s="54">
-        <f>IF((R36=0),"N/A", R36)</f>
+      <c r="M36" s="45">
+        <f t="shared" si="13"/>
         <v>15.89</v>
       </c>
-      <c r="N36" s="54">
+      <c r="N36" s="45">
         <v>1.75</v>
       </c>
-      <c r="O36" s="55">
+      <c r="O36" s="46">
         <v>2.38</v>
       </c>
-      <c r="P36" s="55">
+      <c r="P36" s="46">
         <v>4.04</v>
       </c>
-      <c r="Q36" s="55">
+      <c r="Q36" s="46">
         <v>7.72</v>
       </c>
-      <c r="R36" s="61">
+      <c r="R36" s="52">
         <f t="shared" si="12"/>
         <v>15.89</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="53">
         <v>20230823</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="54">
         <f>218.07-206.94</f>
         <v>11.129999999999995</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="55">
         <f t="shared" si="8"/>
         <v>1.1129999999999995</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="56">
         <f t="shared" si="9"/>
         <v>1.6694999999999993</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="57">
         <f t="shared" si="10"/>
         <v>2.7824999999999989</v>
       </c>
-      <c r="H37" s="67">
+      <c r="H37" s="58">
         <f t="shared" si="11"/>
         <v>5.5649999999999977</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="55">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J37" s="65">
+      <c r="J37" s="56">
         <v>1.67</v>
       </c>
-      <c r="K37" s="66">
+      <c r="K37" s="57">
         <v>2.78</v>
       </c>
-      <c r="L37" s="67">
+      <c r="L37" s="58">
         <v>5.51</v>
       </c>
-      <c r="M37" s="65">
-        <f>IF((R37=0),"N/A", R37)</f>
+      <c r="M37" s="56">
+        <f t="shared" si="13"/>
         <v>9.8099999999999987</v>
       </c>
-      <c r="N37" s="65">
+      <c r="N37" s="56">
         <v>0.97</v>
       </c>
-      <c r="O37" s="66">
+      <c r="O37" s="57">
         <v>1.46</v>
       </c>
-      <c r="P37" s="66">
+      <c r="P37" s="57">
         <v>2.54</v>
       </c>
-      <c r="Q37" s="66">
+      <c r="Q37" s="57">
         <v>4.84</v>
       </c>
       <c r="R37" s="38">
@@ -3137,122 +3388,122 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="42">
         <v>20230821</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="60">
         <v>15.76</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="44">
         <f t="shared" si="8"/>
         <v>1.5760000000000001</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F38" s="45">
         <f t="shared" si="9"/>
         <v>2.3639999999999999</v>
       </c>
-      <c r="G38" s="55">
+      <c r="G38" s="46">
         <f t="shared" si="10"/>
         <v>3.94</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H38" s="47">
         <f t="shared" si="11"/>
         <v>7.88</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="44">
         <v>1.58</v>
       </c>
-      <c r="J38" s="54">
+      <c r="J38" s="45">
         <v>2.36</v>
       </c>
-      <c r="K38" s="55">
+      <c r="K38" s="46">
         <v>3.94</v>
       </c>
-      <c r="L38" s="56">
+      <c r="L38" s="47">
         <v>7.69</v>
       </c>
-      <c r="M38" s="54">
-        <f>IF((R38=0),"N/A", R38)</f>
+      <c r="M38" s="45">
+        <f t="shared" si="13"/>
         <v>12.69</v>
       </c>
-      <c r="N38" s="54">
+      <c r="N38" s="45">
         <v>1.39</v>
       </c>
-      <c r="O38" s="55">
+      <c r="O38" s="46">
         <v>2.12</v>
       </c>
-      <c r="P38" s="55">
+      <c r="P38" s="46">
         <v>3.12</v>
       </c>
-      <c r="Q38" s="55">
+      <c r="Q38" s="46">
         <v>6.06</v>
       </c>
-      <c r="R38" s="61">
+      <c r="R38" s="52">
         <f t="shared" si="12"/>
         <v>12.69</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="70">
+      <c r="B39" s="61">
         <v>20230821</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="54">
         <v>13.75</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="55">
         <f t="shared" si="8"/>
         <v>1.375</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="56">
         <f t="shared" si="9"/>
         <v>2.0625</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="57">
         <f t="shared" si="10"/>
         <v>3.4375</v>
       </c>
-      <c r="H39" s="67">
+      <c r="H39" s="58">
         <f t="shared" si="11"/>
         <v>6.875</v>
       </c>
-      <c r="I39" s="64">
+      <c r="I39" s="55">
         <v>1.38</v>
       </c>
-      <c r="J39" s="65">
+      <c r="J39" s="56">
         <v>2.06</v>
       </c>
-      <c r="K39" s="66">
+      <c r="K39" s="57">
         <v>3.44</v>
       </c>
-      <c r="L39" s="67">
+      <c r="L39" s="58">
         <v>6.82</v>
       </c>
-      <c r="M39" s="65">
-        <f>IF((R39=0),"N/A", R39)</f>
+      <c r="M39" s="56">
+        <f t="shared" si="13"/>
         <v>10.53</v>
       </c>
-      <c r="N39" s="65">
+      <c r="N39" s="56">
         <v>1.08</v>
       </c>
-      <c r="O39" s="66">
+      <c r="O39" s="57">
         <v>1.43</v>
       </c>
-      <c r="P39" s="66">
+      <c r="P39" s="57">
         <v>2.5</v>
       </c>
-      <c r="Q39" s="66">
+      <c r="Q39" s="57">
         <v>5.52</v>
       </c>
       <c r="R39" s="38">
@@ -3261,122 +3512,122 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="68">
+      <c r="B40" s="59">
         <v>20230823</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D40" s="60">
         <v>18.79</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="44">
         <f t="shared" si="8"/>
         <v>1.879</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="45">
         <f t="shared" si="9"/>
         <v>2.8184999999999998</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="46">
         <f t="shared" si="10"/>
         <v>4.6974999999999998</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40" s="47">
         <f t="shared" si="11"/>
         <v>9.3949999999999996</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="44">
         <v>1.88</v>
       </c>
-      <c r="J40" s="54">
+      <c r="J40" s="45">
         <v>2.82</v>
       </c>
-      <c r="K40" s="55">
+      <c r="K40" s="46">
         <v>4.7</v>
       </c>
-      <c r="L40" s="56">
+      <c r="L40" s="47">
         <v>8.98</v>
       </c>
-      <c r="M40" s="54">
-        <f>IF((R40=0),"N/A", R40)</f>
+      <c r="M40" s="45">
+        <f t="shared" si="13"/>
         <v>14.3</v>
       </c>
-      <c r="N40" s="54">
+      <c r="N40" s="45">
         <v>1.52</v>
       </c>
-      <c r="O40" s="55">
+      <c r="O40" s="46">
         <v>2.13</v>
       </c>
-      <c r="P40" s="55">
+      <c r="P40" s="46">
         <v>3.44</v>
       </c>
-      <c r="Q40" s="55">
+      <c r="Q40" s="46">
         <v>7.21</v>
       </c>
-      <c r="R40" s="61">
+      <c r="R40" s="52">
         <f t="shared" si="12"/>
         <v>14.3</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="53">
         <v>20230823</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="54">
         <v>12.68</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="55">
         <f t="shared" si="8"/>
         <v>1.268</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="56">
         <f t="shared" si="9"/>
         <v>1.9019999999999999</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="57">
         <f t="shared" si="10"/>
         <v>3.17</v>
       </c>
-      <c r="H41" s="67">
+      <c r="H41" s="58">
         <f t="shared" si="11"/>
         <v>6.34</v>
       </c>
-      <c r="I41" s="64">
+      <c r="I41" s="55">
         <v>1.27</v>
       </c>
-      <c r="J41" s="65">
+      <c r="J41" s="56">
         <v>1.9</v>
       </c>
-      <c r="K41" s="66">
+      <c r="K41" s="57">
         <v>3.17</v>
       </c>
-      <c r="L41" s="67">
+      <c r="L41" s="58">
         <v>6.1</v>
       </c>
-      <c r="M41" s="65">
-        <f>IF((R41=0),"N/A", R41)</f>
+      <c r="M41" s="56">
+        <f t="shared" si="13"/>
         <v>8.620000000000001</v>
       </c>
-      <c r="N41" s="65">
+      <c r="N41" s="56">
         <v>0.87</v>
       </c>
-      <c r="O41" s="66">
+      <c r="O41" s="57">
         <v>1.41</v>
       </c>
-      <c r="P41" s="66">
+      <c r="P41" s="57">
         <v>1.97</v>
       </c>
-      <c r="Q41" s="66">
+      <c r="Q41" s="57">
         <v>4.37</v>
       </c>
       <c r="R41" s="38">
@@ -3385,122 +3636,122 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="68">
+      <c r="B42" s="59">
         <v>20230822</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="60">
         <v>12.72</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="44">
         <f t="shared" si="8"/>
         <v>1.2720000000000002</v>
       </c>
-      <c r="F42" s="54">
+      <c r="F42" s="45">
         <f t="shared" si="9"/>
         <v>1.9079999999999999</v>
       </c>
-      <c r="G42" s="55">
+      <c r="G42" s="46">
         <f t="shared" si="10"/>
         <v>3.18</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H42" s="47">
         <f t="shared" si="11"/>
         <v>6.36</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I42" s="44">
         <v>1.27</v>
       </c>
-      <c r="J42" s="54">
+      <c r="J42" s="45">
         <v>1.91</v>
       </c>
-      <c r="K42" s="55">
+      <c r="K42" s="46">
         <v>3.18</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L42" s="47">
         <v>6.18</v>
       </c>
-      <c r="M42" s="58">
+      <c r="M42" s="49">
         <f>IF((OR(ISBLANK(N42),ISBLANK(O42),ISBLANK(P42),ISBLANK(Q42))),"N/A", R42)</f>
         <v>10.190000000000001</v>
       </c>
-      <c r="N42" s="54">
+      <c r="N42" s="45">
         <v>1.05</v>
       </c>
-      <c r="O42" s="55">
+      <c r="O42" s="46">
         <v>1.43</v>
       </c>
-      <c r="P42" s="55">
+      <c r="P42" s="46">
         <v>2.72</v>
       </c>
-      <c r="Q42" s="55">
+      <c r="Q42" s="46">
         <v>4.99</v>
       </c>
-      <c r="R42" s="61">
+      <c r="R42" s="52">
         <f t="shared" si="12"/>
         <v>10.190000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="53">
         <v>20230821</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="54">
         <v>9.49</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="55">
         <f t="shared" si="8"/>
         <v>0.94900000000000007</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="56">
         <f t="shared" si="9"/>
         <v>1.4235</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="57">
         <f t="shared" si="10"/>
         <v>2.3725000000000001</v>
       </c>
-      <c r="H43" s="67">
+      <c r="H43" s="58">
         <f t="shared" si="11"/>
         <v>4.7450000000000001</v>
       </c>
-      <c r="I43" s="64">
+      <c r="I43" s="55">
         <v>0.95</v>
       </c>
-      <c r="J43" s="65">
+      <c r="J43" s="56">
         <v>1.42</v>
       </c>
-      <c r="K43" s="66">
+      <c r="K43" s="57">
         <v>2.37</v>
       </c>
-      <c r="L43" s="67">
+      <c r="L43" s="58">
         <v>4.57</v>
       </c>
-      <c r="M43" s="65">
+      <c r="M43" s="56">
         <f>IF((R43=0),"N/A", R43)</f>
         <v>7.71</v>
       </c>
-      <c r="N43" s="65">
+      <c r="N43" s="56">
         <v>0.77</v>
       </c>
-      <c r="O43" s="66">
+      <c r="O43" s="57">
         <v>1.21</v>
       </c>
-      <c r="P43" s="66">
+      <c r="P43" s="57">
         <v>1.96</v>
       </c>
-      <c r="Q43" s="66">
+      <c r="Q43" s="57">
         <v>3.77</v>
       </c>
       <c r="R43" s="38">
@@ -3509,122 +3760,122 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="68">
+      <c r="B44" s="59">
         <v>20230823</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="69">
+      <c r="D44" s="60">
         <v>16.86</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="44">
         <f t="shared" si="8"/>
         <v>1.6859999999999999</v>
       </c>
-      <c r="F44" s="54">
+      <c r="F44" s="45">
         <f t="shared" si="9"/>
         <v>2.5289999999999999</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="46">
         <f t="shared" si="10"/>
         <v>4.2149999999999999</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="47">
         <f t="shared" si="11"/>
         <v>8.43</v>
       </c>
-      <c r="I44" s="53">
+      <c r="I44" s="44">
         <v>1.69</v>
       </c>
-      <c r="J44" s="54">
+      <c r="J44" s="45">
         <v>2.5299999999999998</v>
       </c>
-      <c r="K44" s="55">
+      <c r="K44" s="46">
         <v>4.22</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="47">
         <v>8.2899999999999991</v>
       </c>
-      <c r="M44" s="54">
+      <c r="M44" s="45">
         <f>IF((R44=0),"N/A", R44)</f>
         <v>13.959999999999999</v>
       </c>
-      <c r="N44" s="54">
+      <c r="N44" s="45">
         <v>1.43</v>
       </c>
-      <c r="O44" s="55">
+      <c r="O44" s="46">
         <v>2.17</v>
       </c>
-      <c r="P44" s="55">
+      <c r="P44" s="46">
         <v>3.51</v>
       </c>
-      <c r="Q44" s="55">
+      <c r="Q44" s="46">
         <v>6.85</v>
       </c>
-      <c r="R44" s="61">
+      <c r="R44" s="52">
         <f t="shared" si="12"/>
         <v>13.959999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="62">
+      <c r="B45" s="53">
         <v>20230823</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="54">
         <v>6.72</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="55">
         <f t="shared" si="8"/>
         <v>0.67200000000000004</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="56">
         <f t="shared" si="9"/>
         <v>1.008</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="57">
         <f t="shared" si="10"/>
         <v>1.68</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="58">
         <f t="shared" si="11"/>
         <v>3.36</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="55">
         <v>0.67</v>
       </c>
-      <c r="J45" s="65">
+      <c r="J45" s="56">
         <v>1.01</v>
       </c>
-      <c r="K45" s="66">
+      <c r="K45" s="57">
         <v>1.68</v>
       </c>
-      <c r="L45" s="67">
+      <c r="L45" s="58">
         <v>3.21</v>
       </c>
-      <c r="M45" s="65">
+      <c r="M45" s="56">
         <f>IF((R45=0),"N/A", R45)</f>
         <v>4.9700000000000006</v>
       </c>
-      <c r="N45" s="65">
+      <c r="N45" s="56">
         <v>0.5</v>
       </c>
-      <c r="O45" s="66">
+      <c r="O45" s="57">
         <v>0.76</v>
       </c>
-      <c r="P45" s="66">
+      <c r="P45" s="57">
         <v>1.23</v>
       </c>
-      <c r="Q45" s="66">
+      <c r="Q45" s="57">
         <v>2.48</v>
       </c>
       <c r="R45" s="38">
@@ -3633,77 +3884,2590 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="68">
+      <c r="B46" s="59">
         <v>20230822</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="60">
         <v>28.74</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="44">
         <f t="shared" si="8"/>
         <v>2.8740000000000001</v>
       </c>
-      <c r="F46" s="54">
+      <c r="F46" s="45">
         <f t="shared" si="9"/>
         <v>4.3109999999999999</v>
       </c>
-      <c r="G46" s="55">
+      <c r="G46" s="46">
         <f t="shared" si="10"/>
         <v>7.1849999999999996</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H46" s="47">
         <f t="shared" si="11"/>
         <v>14.37</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I46" s="44">
         <v>2.87</v>
       </c>
-      <c r="J46" s="54">
+      <c r="J46" s="45">
         <v>4.3099999999999996</v>
       </c>
-      <c r="K46" s="55">
+      <c r="K46" s="46">
         <v>7.19</v>
       </c>
-      <c r="L46" s="56">
+      <c r="L46" s="47">
         <v>13.65</v>
       </c>
-      <c r="M46" s="54">
+      <c r="M46" s="45">
         <f>IF((R46=0),"N/A", R46)</f>
         <v>17.89</v>
       </c>
-      <c r="N46" s="54">
+      <c r="N46" s="45">
         <v>1.76</v>
       </c>
-      <c r="O46" s="55">
+      <c r="O46" s="46">
         <v>2.89</v>
       </c>
-      <c r="P46" s="55">
+      <c r="P46" s="46">
         <v>4.8899999999999997</v>
       </c>
-      <c r="Q46" s="55">
+      <c r="Q46" s="46">
         <v>8.35</v>
       </c>
-      <c r="R46" s="61">
+      <c r="R46" s="52">
         <f t="shared" si="12"/>
         <v>17.89</v>
       </c>
     </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="62"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="O52" s="107"/>
+      <c r="P52" s="107"/>
+      <c r="Q52" s="107"/>
+    </row>
+    <row r="53" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="66">
+        <v>20230613</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="67">
+        <v>202.56</v>
+      </c>
+      <c r="E54" s="68">
+        <f t="shared" ref="E54:E73" si="14">IF(ISNUMBER(D54),D54*0.1,"N/A")</f>
+        <v>20.256</v>
+      </c>
+      <c r="F54" s="69">
+        <f t="shared" ref="F54:F73" si="15">IF(ISNUMBER(D54),D54*0.15,"N/A")</f>
+        <v>30.384</v>
+      </c>
+      <c r="G54" s="70">
+        <f t="shared" ref="G54:G73" si="16">IF(ISNUMBER(D54),D54*0.25,"N/A")</f>
+        <v>50.64</v>
+      </c>
+      <c r="H54" s="71">
+        <f t="shared" ref="H54:H73" si="17">IF(ISNUMBER(D54),D54*0.5,"N/A")</f>
+        <v>101.28</v>
+      </c>
+      <c r="I54" s="72">
+        <v>17.53</v>
+      </c>
+      <c r="J54" s="73">
+        <v>30.36</v>
+      </c>
+      <c r="K54" s="66">
+        <v>50.46</v>
+      </c>
+      <c r="L54" s="74">
+        <v>101.29</v>
+      </c>
+      <c r="M54" s="75">
+        <f>SUM(N54:Q54)</f>
+        <v>61.08</v>
+      </c>
+      <c r="N54" s="73">
+        <v>3.05</v>
+      </c>
+      <c r="O54" s="76">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P54" s="76">
+        <v>18.7</v>
+      </c>
+      <c r="Q54" s="66">
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="66">
+        <v>20230613</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="79">
+        <v>45.6</v>
+      </c>
+      <c r="E55" s="68">
+        <f t="shared" si="14"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="F55" s="69">
+        <f t="shared" si="15"/>
+        <v>6.84</v>
+      </c>
+      <c r="G55" s="70">
+        <f t="shared" si="16"/>
+        <v>11.4</v>
+      </c>
+      <c r="H55" s="71">
+        <f t="shared" si="17"/>
+        <v>22.8</v>
+      </c>
+      <c r="I55" s="80">
+        <v>4.53</v>
+      </c>
+      <c r="J55" s="81">
+        <v>6.07</v>
+      </c>
+      <c r="K55" s="78">
+        <v>11.3</v>
+      </c>
+      <c r="L55" s="82">
+        <v>22.72</v>
+      </c>
+      <c r="M55" s="83">
+        <f t="shared" ref="M55:M73" si="18">SUM(N55:Q55)</f>
+        <v>22.45</v>
+      </c>
+      <c r="N55" s="81">
+        <v>2.59</v>
+      </c>
+      <c r="O55" s="78">
+        <v>3.6</v>
+      </c>
+      <c r="P55" s="78">
+        <v>4.72</v>
+      </c>
+      <c r="Q55" s="78">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="66">
+        <v>20230613</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="79">
+        <v>95.46</v>
+      </c>
+      <c r="E56" s="68">
+        <f t="shared" si="14"/>
+        <v>9.5459999999999994</v>
+      </c>
+      <c r="F56" s="69">
+        <f t="shared" si="15"/>
+        <v>14.318999999999999</v>
+      </c>
+      <c r="G56" s="70">
+        <f t="shared" si="16"/>
+        <v>23.864999999999998</v>
+      </c>
+      <c r="H56" s="71">
+        <f t="shared" si="17"/>
+        <v>47.73</v>
+      </c>
+      <c r="I56" s="80">
+        <v>9.52</v>
+      </c>
+      <c r="J56" s="81">
+        <v>14.28</v>
+      </c>
+      <c r="K56" s="78">
+        <v>23.41</v>
+      </c>
+      <c r="L56" s="82">
+        <v>46.34</v>
+      </c>
+      <c r="M56" s="83">
+        <f t="shared" si="18"/>
+        <v>17.82</v>
+      </c>
+      <c r="N56" s="81">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O56" s="78">
+        <v>2.11</v>
+      </c>
+      <c r="P56" s="78">
+        <v>3.59</v>
+      </c>
+      <c r="Q56" s="78">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="79">
+        <v>59.63</v>
+      </c>
+      <c r="E57" s="68">
+        <f t="shared" si="14"/>
+        <v>5.963000000000001</v>
+      </c>
+      <c r="F57" s="69">
+        <f t="shared" si="15"/>
+        <v>8.9444999999999997</v>
+      </c>
+      <c r="G57" s="70">
+        <f t="shared" si="16"/>
+        <v>14.907500000000001</v>
+      </c>
+      <c r="H57" s="71">
+        <f t="shared" si="17"/>
+        <v>29.815000000000001</v>
+      </c>
+      <c r="I57" s="80">
+        <v>5.95</v>
+      </c>
+      <c r="J57" s="81">
+        <v>8.92</v>
+      </c>
+      <c r="K57" s="78">
+        <v>14.95</v>
+      </c>
+      <c r="L57" s="82">
+        <v>28.72</v>
+      </c>
+      <c r="M57" s="83">
+        <f t="shared" si="18"/>
+        <v>18.759999999999998</v>
+      </c>
+      <c r="N57" s="81">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O57" s="78">
+        <v>2.34</v>
+      </c>
+      <c r="P57" s="78">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q57" s="78">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="66">
+        <v>20230613</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="79">
+        <v>93.46</v>
+      </c>
+      <c r="E58" s="68">
+        <f t="shared" si="14"/>
+        <v>9.3460000000000001</v>
+      </c>
+      <c r="F58" s="69">
+        <f t="shared" si="15"/>
+        <v>14.018999999999998</v>
+      </c>
+      <c r="G58" s="70">
+        <f t="shared" si="16"/>
+        <v>23.364999999999998</v>
+      </c>
+      <c r="H58" s="71">
+        <f t="shared" si="17"/>
+        <v>46.73</v>
+      </c>
+      <c r="I58" s="68">
+        <v>8.02</v>
+      </c>
+      <c r="J58" s="81">
+        <v>14</v>
+      </c>
+      <c r="K58" s="70">
+        <v>23.364999999999998</v>
+      </c>
+      <c r="L58" s="71">
+        <v>46.73</v>
+      </c>
+      <c r="M58" s="83">
+        <f t="shared" si="18"/>
+        <v>36.19</v>
+      </c>
+      <c r="N58" s="81">
+        <v>3.72</v>
+      </c>
+      <c r="O58" s="78">
+        <v>5.62</v>
+      </c>
+      <c r="P58" s="78">
+        <v>8.56</v>
+      </c>
+      <c r="Q58" s="78">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C59" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="79">
+        <v>109.24</v>
+      </c>
+      <c r="E59" s="68">
+        <f t="shared" si="14"/>
+        <v>10.923999999999999</v>
+      </c>
+      <c r="F59" s="69">
+        <f t="shared" si="15"/>
+        <v>16.385999999999999</v>
+      </c>
+      <c r="G59" s="70">
+        <f t="shared" si="16"/>
+        <v>27.31</v>
+      </c>
+      <c r="H59" s="71">
+        <f t="shared" si="17"/>
+        <v>54.62</v>
+      </c>
+      <c r="I59" s="80">
+        <v>10.81</v>
+      </c>
+      <c r="J59" s="81">
+        <v>16.14</v>
+      </c>
+      <c r="K59" s="78">
+        <v>27.13</v>
+      </c>
+      <c r="L59" s="82">
+        <v>54.24</v>
+      </c>
+      <c r="M59" s="83">
+        <f t="shared" si="18"/>
+        <v>37.44</v>
+      </c>
+      <c r="N59" s="81">
+        <v>3.37</v>
+      </c>
+      <c r="O59" s="78">
+        <v>5.78</v>
+      </c>
+      <c r="P59" s="78">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="Q59" s="78">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="66">
+        <v>20230613</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="79">
+        <v>117.88</v>
+      </c>
+      <c r="E60" s="68">
+        <f t="shared" si="14"/>
+        <v>11.788</v>
+      </c>
+      <c r="F60" s="69">
+        <f t="shared" si="15"/>
+        <v>17.681999999999999</v>
+      </c>
+      <c r="G60" s="70">
+        <f t="shared" si="16"/>
+        <v>29.47</v>
+      </c>
+      <c r="H60" s="71">
+        <f t="shared" si="17"/>
+        <v>58.94</v>
+      </c>
+      <c r="I60" s="80">
+        <v>11.26</v>
+      </c>
+      <c r="J60" s="81">
+        <v>17.52</v>
+      </c>
+      <c r="K60" s="78">
+        <v>29.14</v>
+      </c>
+      <c r="L60" s="82">
+        <v>58.28</v>
+      </c>
+      <c r="M60" s="83">
+        <f t="shared" si="18"/>
+        <v>55.82</v>
+      </c>
+      <c r="N60" s="81">
+        <v>5.77</v>
+      </c>
+      <c r="O60" s="78">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="P60" s="78">
+        <v>13.22</v>
+      </c>
+      <c r="Q60" s="78">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="84">
+        <v>52.36</v>
+      </c>
+      <c r="E61" s="68">
+        <f t="shared" si="14"/>
+        <v>5.2360000000000007</v>
+      </c>
+      <c r="F61" s="69">
+        <f t="shared" si="15"/>
+        <v>7.8539999999999992</v>
+      </c>
+      <c r="G61" s="70">
+        <f t="shared" si="16"/>
+        <v>13.09</v>
+      </c>
+      <c r="H61" s="71">
+        <f t="shared" si="17"/>
+        <v>26.18</v>
+      </c>
+      <c r="I61" s="80">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J61" s="81">
+        <v>7.77</v>
+      </c>
+      <c r="K61" s="78">
+        <v>13</v>
+      </c>
+      <c r="L61" s="82">
+        <v>26.2</v>
+      </c>
+      <c r="M61" s="75">
+        <f t="shared" si="18"/>
+        <v>24.1</v>
+      </c>
+      <c r="N61" s="81">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="O61" s="78">
+        <v>4.01</v>
+      </c>
+      <c r="P61" s="78">
+        <v>6.14</v>
+      </c>
+      <c r="Q61" s="78">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="66">
+        <v>20230613</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="79">
+        <v>37.92</v>
+      </c>
+      <c r="E62" s="68">
+        <f t="shared" si="14"/>
+        <v>3.7920000000000003</v>
+      </c>
+      <c r="F62" s="69">
+        <f t="shared" si="15"/>
+        <v>5.6879999999999997</v>
+      </c>
+      <c r="G62" s="70">
+        <f t="shared" si="16"/>
+        <v>9.48</v>
+      </c>
+      <c r="H62" s="71">
+        <f t="shared" si="17"/>
+        <v>18.96</v>
+      </c>
+      <c r="I62" s="80">
+        <v>3.71</v>
+      </c>
+      <c r="J62" s="81">
+        <v>5.69</v>
+      </c>
+      <c r="K62" s="78">
+        <v>9.48</v>
+      </c>
+      <c r="L62" s="82">
+        <v>17.23</v>
+      </c>
+      <c r="M62" s="83">
+        <f t="shared" si="18"/>
+        <v>10.84</v>
+      </c>
+      <c r="N62" s="81">
+        <v>1.32</v>
+      </c>
+      <c r="O62" s="78">
+        <v>1.88</v>
+      </c>
+      <c r="P62" s="78">
+        <v>2.8</v>
+      </c>
+      <c r="Q62" s="78">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="79">
+        <v>54.82</v>
+      </c>
+      <c r="E63" s="68">
+        <f t="shared" si="14"/>
+        <v>5.4820000000000002</v>
+      </c>
+      <c r="F63" s="69">
+        <f t="shared" si="15"/>
+        <v>8.222999999999999</v>
+      </c>
+      <c r="G63" s="70">
+        <f t="shared" si="16"/>
+        <v>13.705</v>
+      </c>
+      <c r="H63" s="71">
+        <f t="shared" si="17"/>
+        <v>27.41</v>
+      </c>
+      <c r="I63" s="80">
+        <v>5.49</v>
+      </c>
+      <c r="J63" s="81">
+        <v>8.18</v>
+      </c>
+      <c r="K63" s="78">
+        <v>13.6</v>
+      </c>
+      <c r="L63" s="82">
+        <v>25.99</v>
+      </c>
+      <c r="M63" s="75">
+        <f t="shared" si="18"/>
+        <v>23.199999999999996</v>
+      </c>
+      <c r="N63" s="81">
+        <v>2.75</v>
+      </c>
+      <c r="O63" s="78">
+        <v>3.03</v>
+      </c>
+      <c r="P63" s="78">
+        <v>6.8</v>
+      </c>
+      <c r="Q63" s="78">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="66">
+        <v>20230612</v>
+      </c>
+      <c r="C64" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="84">
+        <v>104.68</v>
+      </c>
+      <c r="E64" s="68">
+        <f t="shared" si="14"/>
+        <v>10.468000000000002</v>
+      </c>
+      <c r="F64" s="69">
+        <f t="shared" si="15"/>
+        <v>15.702</v>
+      </c>
+      <c r="G64" s="70">
+        <f t="shared" si="16"/>
+        <v>26.17</v>
+      </c>
+      <c r="H64" s="71">
+        <f t="shared" si="17"/>
+        <v>52.34</v>
+      </c>
+      <c r="I64" s="80">
+        <v>10.52</v>
+      </c>
+      <c r="J64" s="81">
+        <v>15.71</v>
+      </c>
+      <c r="K64" s="78">
+        <v>26.07</v>
+      </c>
+      <c r="L64" s="82">
+        <v>50.94</v>
+      </c>
+      <c r="M64" s="83">
+        <f t="shared" si="18"/>
+        <v>35.459999999999994</v>
+      </c>
+      <c r="N64" s="81">
+        <v>3.43</v>
+      </c>
+      <c r="O64" s="78">
+        <v>4.3</v>
+      </c>
+      <c r="P64" s="78">
+        <v>10.24</v>
+      </c>
+      <c r="Q64" s="78">
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="78">
+        <v>20230612</v>
+      </c>
+      <c r="C65" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="84">
+        <v>162.54</v>
+      </c>
+      <c r="E65" s="68">
+        <f t="shared" si="14"/>
+        <v>16.254000000000001</v>
+      </c>
+      <c r="F65" s="69">
+        <f t="shared" si="15"/>
+        <v>24.380999999999997</v>
+      </c>
+      <c r="G65" s="70">
+        <f t="shared" si="16"/>
+        <v>40.634999999999998</v>
+      </c>
+      <c r="H65" s="71">
+        <f t="shared" si="17"/>
+        <v>81.27</v>
+      </c>
+      <c r="I65" s="80">
+        <v>13.05</v>
+      </c>
+      <c r="J65" s="81">
+        <v>24.38</v>
+      </c>
+      <c r="K65" s="78">
+        <v>40.64</v>
+      </c>
+      <c r="L65" s="82">
+        <v>81.25</v>
+      </c>
+      <c r="M65" s="83">
+        <f t="shared" si="18"/>
+        <v>52.33</v>
+      </c>
+      <c r="N65" s="81">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="O65" s="78">
+        <v>7.78</v>
+      </c>
+      <c r="P65" s="78">
+        <v>13.82</v>
+      </c>
+      <c r="Q65" s="78">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="66">
+        <v>20230613</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="79">
+        <v>26.81</v>
+      </c>
+      <c r="E66" s="68">
+        <f t="shared" si="14"/>
+        <v>2.681</v>
+      </c>
+      <c r="F66" s="69">
+        <f t="shared" si="15"/>
+        <v>4.0214999999999996</v>
+      </c>
+      <c r="G66" s="70">
+        <f t="shared" si="16"/>
+        <v>6.7024999999999997</v>
+      </c>
+      <c r="H66" s="71">
+        <f t="shared" si="17"/>
+        <v>13.404999999999999</v>
+      </c>
+      <c r="I66" s="80">
+        <v>2.67</v>
+      </c>
+      <c r="J66" s="81">
+        <v>3.97</v>
+      </c>
+      <c r="K66" s="78">
+        <v>6.66</v>
+      </c>
+      <c r="L66" s="82">
+        <v>12.68</v>
+      </c>
+      <c r="M66" s="83">
+        <f t="shared" si="18"/>
+        <v>12.81</v>
+      </c>
+      <c r="N66" s="81">
+        <v>1.24</v>
+      </c>
+      <c r="O66" s="78">
+        <v>1.84</v>
+      </c>
+      <c r="P66" s="78">
+        <v>3.39</v>
+      </c>
+      <c r="Q66" s="78">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C67" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="79">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="E67" s="68">
+        <f t="shared" si="14"/>
+        <v>3.9840000000000004</v>
+      </c>
+      <c r="F67" s="69">
+        <f t="shared" si="15"/>
+        <v>5.976</v>
+      </c>
+      <c r="G67" s="70">
+        <f t="shared" si="16"/>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H67" s="71">
+        <f t="shared" si="17"/>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="I67" s="80">
+        <v>3.9</v>
+      </c>
+      <c r="J67" s="81">
+        <v>5.96</v>
+      </c>
+      <c r="K67" s="78">
+        <v>9.98</v>
+      </c>
+      <c r="L67" s="82">
+        <v>19.14</v>
+      </c>
+      <c r="M67" s="83">
+        <f t="shared" si="18"/>
+        <v>17.229999999999997</v>
+      </c>
+      <c r="N67" s="81">
+        <v>1.75</v>
+      </c>
+      <c r="O67" s="78">
+        <v>2.62</v>
+      </c>
+      <c r="P67" s="78">
+        <v>4.67</v>
+      </c>
+      <c r="Q67" s="78">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="78">
+        <v>20230612</v>
+      </c>
+      <c r="C68" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="84">
+        <v>63.13</v>
+      </c>
+      <c r="E68" s="68">
+        <f t="shared" si="14"/>
+        <v>6.3130000000000006</v>
+      </c>
+      <c r="F68" s="69">
+        <f t="shared" si="15"/>
+        <v>9.4695</v>
+      </c>
+      <c r="G68" s="70">
+        <f t="shared" si="16"/>
+        <v>15.782500000000001</v>
+      </c>
+      <c r="H68" s="71">
+        <f t="shared" si="17"/>
+        <v>31.565000000000001</v>
+      </c>
+      <c r="I68" s="80">
+        <v>4.8</v>
+      </c>
+      <c r="J68" s="81">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="K68" s="78">
+        <v>15.77</v>
+      </c>
+      <c r="L68" s="82">
+        <v>31.58</v>
+      </c>
+      <c r="M68" s="83">
+        <f t="shared" si="18"/>
+        <v>25.009999999999998</v>
+      </c>
+      <c r="N68" s="81">
+        <v>2.08</v>
+      </c>
+      <c r="O68" s="78">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="P68" s="78">
+        <v>6.49</v>
+      </c>
+      <c r="Q68" s="78">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="78">
+        <v>20230612</v>
+      </c>
+      <c r="C69" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="84">
+        <v>99.71</v>
+      </c>
+      <c r="E69" s="68">
+        <f t="shared" si="14"/>
+        <v>9.9710000000000001</v>
+      </c>
+      <c r="F69" s="69">
+        <f t="shared" si="15"/>
+        <v>14.956499999999998</v>
+      </c>
+      <c r="G69" s="70">
+        <f t="shared" si="16"/>
+        <v>24.927499999999998</v>
+      </c>
+      <c r="H69" s="71">
+        <f t="shared" si="17"/>
+        <v>49.854999999999997</v>
+      </c>
+      <c r="I69" s="80">
+        <v>8.81</v>
+      </c>
+      <c r="J69" s="81">
+        <v>14.4</v>
+      </c>
+      <c r="K69" s="78">
+        <v>24.95</v>
+      </c>
+      <c r="L69" s="82">
+        <v>49.85</v>
+      </c>
+      <c r="M69" s="83">
+        <f t="shared" si="18"/>
+        <v>41.209999999999994</v>
+      </c>
+      <c r="N69" s="81">
+        <v>3.4</v>
+      </c>
+      <c r="O69" s="78">
+        <v>5.48</v>
+      </c>
+      <c r="P69" s="78">
+        <v>10.52</v>
+      </c>
+      <c r="Q69" s="78">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C70" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="79">
+        <v>70.19</v>
+      </c>
+      <c r="E70" s="68">
+        <f t="shared" si="14"/>
+        <v>7.0190000000000001</v>
+      </c>
+      <c r="F70" s="69">
+        <f t="shared" si="15"/>
+        <v>10.528499999999999</v>
+      </c>
+      <c r="G70" s="70">
+        <f t="shared" si="16"/>
+        <v>17.547499999999999</v>
+      </c>
+      <c r="H70" s="71">
+        <f t="shared" si="17"/>
+        <v>35.094999999999999</v>
+      </c>
+      <c r="I70" s="68">
+        <v>6.95</v>
+      </c>
+      <c r="J70" s="69">
+        <v>10.6</v>
+      </c>
+      <c r="K70" s="70">
+        <v>17.41</v>
+      </c>
+      <c r="L70" s="71">
+        <v>34.53</v>
+      </c>
+      <c r="M70" s="83">
+        <f t="shared" si="18"/>
+        <v>28.51</v>
+      </c>
+      <c r="N70" s="85">
+        <v>3.42</v>
+      </c>
+      <c r="O70" s="78">
+        <v>4.7</v>
+      </c>
+      <c r="P70" s="78">
+        <v>7.37</v>
+      </c>
+      <c r="Q70" s="86">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C71" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="91">
+        <v>90.02</v>
+      </c>
+      <c r="E71" s="68">
+        <f t="shared" si="14"/>
+        <v>9.0020000000000007</v>
+      </c>
+      <c r="F71" s="69">
+        <f t="shared" si="15"/>
+        <v>13.502999999999998</v>
+      </c>
+      <c r="G71" s="70">
+        <f t="shared" si="16"/>
+        <v>22.504999999999999</v>
+      </c>
+      <c r="H71" s="71">
+        <f t="shared" si="17"/>
+        <v>45.01</v>
+      </c>
+      <c r="I71" s="92">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="J71" s="85">
+        <v>13.44</v>
+      </c>
+      <c r="K71" s="86">
+        <v>21.51</v>
+      </c>
+      <c r="L71" s="93">
+        <v>44.96</v>
+      </c>
+      <c r="M71" s="83">
+        <f t="shared" si="18"/>
+        <v>43.15</v>
+      </c>
+      <c r="N71" s="85">
+        <v>3.3</v>
+      </c>
+      <c r="O71" s="86">
+        <v>6.14</v>
+      </c>
+      <c r="P71" s="86">
+        <v>10.6</v>
+      </c>
+      <c r="Q71" s="86">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C72" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="87">
+        <v>156.69</v>
+      </c>
+      <c r="E72" s="68">
+        <f t="shared" si="14"/>
+        <v>15.669</v>
+      </c>
+      <c r="F72" s="69">
+        <f t="shared" si="15"/>
+        <v>23.503499999999999</v>
+      </c>
+      <c r="G72" s="70">
+        <f t="shared" si="16"/>
+        <v>39.172499999999999</v>
+      </c>
+      <c r="H72" s="71">
+        <f t="shared" si="17"/>
+        <v>78.344999999999999</v>
+      </c>
+      <c r="I72" s="92">
+        <v>15.56</v>
+      </c>
+      <c r="J72" s="85">
+        <v>23.38</v>
+      </c>
+      <c r="K72" s="86">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="L72" s="93">
+        <v>78.02</v>
+      </c>
+      <c r="M72" s="83">
+        <f t="shared" si="18"/>
+        <v>51.94</v>
+      </c>
+      <c r="N72" s="89">
+        <v>4.62</v>
+      </c>
+      <c r="O72" s="89">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="P72" s="89">
+        <v>13.79</v>
+      </c>
+      <c r="Q72" s="89">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="78">
+        <v>20230613</v>
+      </c>
+      <c r="C73" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="91">
+        <v>82.64</v>
+      </c>
+      <c r="E73" s="68">
+        <f t="shared" si="14"/>
+        <v>8.2640000000000011</v>
+      </c>
+      <c r="F73" s="69">
+        <f t="shared" si="15"/>
+        <v>12.395999999999999</v>
+      </c>
+      <c r="G73" s="70">
+        <f t="shared" si="16"/>
+        <v>20.66</v>
+      </c>
+      <c r="H73" s="71">
+        <f t="shared" si="17"/>
+        <v>41.32</v>
+      </c>
+      <c r="I73" s="88">
+        <v>5.65</v>
+      </c>
+      <c r="J73" s="85">
+        <v>12.23</v>
+      </c>
+      <c r="K73" s="86">
+        <v>20.56</v>
+      </c>
+      <c r="L73" s="93">
+        <v>41.16</v>
+      </c>
+      <c r="M73" s="83">
+        <f t="shared" si="18"/>
+        <v>31.42</v>
+      </c>
+      <c r="N73" s="89">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="O73" s="89">
+        <v>4.66</v>
+      </c>
+      <c r="P73" s="89">
+        <v>7.52</v>
+      </c>
+      <c r="Q73" s="89">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="104"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="107"/>
+      <c r="K79" s="107"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="O79" s="107"/>
+      <c r="P79" s="107"/>
+      <c r="Q79" s="107"/>
+    </row>
+    <row r="80" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="61">
+        <v>20230907</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="54">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="E81" s="55">
+        <f t="shared" ref="E81:E99" si="19">IF(ISNUMBER(D81),D81*0.1,"N/A")</f>
+        <v>6.7349999999999994</v>
+      </c>
+      <c r="F81" s="56">
+        <f t="shared" ref="F81:F99" si="20">IF(ISNUMBER(D81),D81*0.15,"N/A")</f>
+        <v>10.102499999999999</v>
+      </c>
+      <c r="G81" s="57">
+        <f t="shared" ref="G81:G99" si="21">IF(ISNUMBER(D81),D81*0.25,"N/A")</f>
+        <v>16.837499999999999</v>
+      </c>
+      <c r="H81" s="58">
+        <f t="shared" ref="H81:H99" si="22">IF(ISNUMBER(D81),D81*0.5,"N/A")</f>
+        <v>33.674999999999997</v>
+      </c>
+      <c r="I81" s="55">
+        <v>6.91</v>
+      </c>
+      <c r="J81" s="56">
+        <v>10.31</v>
+      </c>
+      <c r="K81" s="57">
+        <v>17.09</v>
+      </c>
+      <c r="L81" s="58">
+        <v>33.04</v>
+      </c>
+      <c r="M81" s="55">
+        <f t="shared" ref="M81:M99" si="23">IF((OR(ISBLANK(N81),ISBLANK(O81),ISBLANK(P81),ISBLANK(Q81))),"N/A", SUM(N81:Q81))</f>
+        <v>56.14</v>
+      </c>
+      <c r="N81" s="56">
+        <v>5.64</v>
+      </c>
+      <c r="O81" s="57">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P81" s="57">
+        <v>14.32</v>
+      </c>
+      <c r="Q81" s="58">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="61">
+        <v>20230904</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="54">
+        <v>90.52</v>
+      </c>
+      <c r="E82" s="55">
+        <f t="shared" si="19"/>
+        <v>9.0519999999999996</v>
+      </c>
+      <c r="F82" s="56">
+        <f t="shared" si="20"/>
+        <v>13.577999999999999</v>
+      </c>
+      <c r="G82" s="57">
+        <f t="shared" si="21"/>
+        <v>22.63</v>
+      </c>
+      <c r="H82" s="58">
+        <f t="shared" si="22"/>
+        <v>45.26</v>
+      </c>
+      <c r="I82" s="55">
+        <v>9.06</v>
+      </c>
+      <c r="J82" s="56">
+        <v>13.61</v>
+      </c>
+      <c r="K82" s="57">
+        <v>22.59</v>
+      </c>
+      <c r="L82" s="58">
+        <v>44.42</v>
+      </c>
+      <c r="M82" s="55">
+        <f t="shared" si="23"/>
+        <v>60.980000000000004</v>
+      </c>
+      <c r="N82" s="56">
+        <v>5.83</v>
+      </c>
+      <c r="O82" s="57">
+        <v>9.43</v>
+      </c>
+      <c r="P82" s="57">
+        <v>15.03</v>
+      </c>
+      <c r="Q82" s="58">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="53">
+        <v>20230904</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="54">
+        <v>36.56</v>
+      </c>
+      <c r="E83" s="55">
+        <f t="shared" si="19"/>
+        <v>3.6560000000000006</v>
+      </c>
+      <c r="F83" s="56">
+        <f t="shared" si="20"/>
+        <v>5.484</v>
+      </c>
+      <c r="G83" s="57">
+        <f t="shared" si="21"/>
+        <v>9.14</v>
+      </c>
+      <c r="H83" s="58">
+        <f t="shared" si="22"/>
+        <v>18.28</v>
+      </c>
+      <c r="I83" s="55">
+        <v>3.66</v>
+      </c>
+      <c r="J83" s="56">
+        <v>5.47</v>
+      </c>
+      <c r="K83" s="57">
+        <v>9.14</v>
+      </c>
+      <c r="L83" s="58">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="M83" s="55">
+        <f t="shared" si="23"/>
+        <v>28.34</v>
+      </c>
+      <c r="N83" s="56">
+        <v>2.63</v>
+      </c>
+      <c r="O83" s="57">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="P83" s="57">
+        <v>7.48</v>
+      </c>
+      <c r="Q83" s="58">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="61">
+        <v>20230907</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="54">
+        <v>67.03</v>
+      </c>
+      <c r="E84" s="55">
+        <f t="shared" si="19"/>
+        <v>6.7030000000000003</v>
+      </c>
+      <c r="F84" s="56">
+        <f t="shared" si="20"/>
+        <v>10.054499999999999</v>
+      </c>
+      <c r="G84" s="57">
+        <f t="shared" si="21"/>
+        <v>16.7575</v>
+      </c>
+      <c r="H84" s="58">
+        <f t="shared" si="22"/>
+        <v>33.515000000000001</v>
+      </c>
+      <c r="I84" s="55">
+        <v>6.23</v>
+      </c>
+      <c r="J84" s="56">
+        <v>10.06</v>
+      </c>
+      <c r="K84" s="57">
+        <v>16.77</v>
+      </c>
+      <c r="L84" s="58">
+        <v>33.51</v>
+      </c>
+      <c r="M84" s="55">
+        <f t="shared" si="23"/>
+        <v>57.070000000000007</v>
+      </c>
+      <c r="N84" s="56">
+        <v>4.7</v>
+      </c>
+      <c r="O84" s="57">
+        <v>8.83</v>
+      </c>
+      <c r="P84" s="57">
+        <v>14.56</v>
+      </c>
+      <c r="Q84" s="58">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="61">
+        <v>20230907</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="54">
+        <v>88.17</v>
+      </c>
+      <c r="E85" s="55">
+        <f t="shared" si="19"/>
+        <v>8.8170000000000002</v>
+      </c>
+      <c r="F85" s="56">
+        <f t="shared" si="20"/>
+        <v>13.2255</v>
+      </c>
+      <c r="G85" s="57">
+        <f t="shared" si="21"/>
+        <v>22.0425</v>
+      </c>
+      <c r="H85" s="58">
+        <f t="shared" si="22"/>
+        <v>44.085000000000001</v>
+      </c>
+      <c r="I85" s="55">
+        <v>8.85</v>
+      </c>
+      <c r="J85" s="56">
+        <v>13.23</v>
+      </c>
+      <c r="K85" s="57">
+        <v>22.04</v>
+      </c>
+      <c r="L85" s="58">
+        <v>43</v>
+      </c>
+      <c r="M85" s="55">
+        <f t="shared" si="23"/>
+        <v>74.289999999999992</v>
+      </c>
+      <c r="N85" s="56">
+        <v>7.55</v>
+      </c>
+      <c r="O85" s="57">
+        <v>11.29</v>
+      </c>
+      <c r="P85" s="57">
+        <v>19.23</v>
+      </c>
+      <c r="Q85" s="58">
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="61">
+        <v>20230911</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="54">
+        <v>180.3</v>
+      </c>
+      <c r="E86" s="55">
+        <f t="shared" si="19"/>
+        <v>18.03</v>
+      </c>
+      <c r="F86" s="56">
+        <f t="shared" si="20"/>
+        <v>27.045000000000002</v>
+      </c>
+      <c r="G86" s="57">
+        <f t="shared" si="21"/>
+        <v>45.075000000000003</v>
+      </c>
+      <c r="H86" s="58">
+        <f t="shared" si="22"/>
+        <v>90.15</v>
+      </c>
+      <c r="I86" s="55">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="J86" s="94">
+        <v>27</v>
+      </c>
+      <c r="K86" s="57">
+        <v>45.08</v>
+      </c>
+      <c r="L86" s="58">
+        <v>87.83</v>
+      </c>
+      <c r="M86" s="55">
+        <f t="shared" si="23"/>
+        <v>64.099999999999994</v>
+      </c>
+      <c r="N86" s="56">
+        <v>5.93</v>
+      </c>
+      <c r="O86" s="57">
+        <v>8.99</v>
+      </c>
+      <c r="P86" s="57">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="Q86" s="58">
+        <v>32.74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="53">
+        <v>20230911</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="95">
+        <v>309.55</v>
+      </c>
+      <c r="E87" s="55">
+        <f t="shared" si="19"/>
+        <v>30.955000000000002</v>
+      </c>
+      <c r="F87" s="56">
+        <f t="shared" si="20"/>
+        <v>46.432499999999997</v>
+      </c>
+      <c r="G87" s="57">
+        <f t="shared" si="21"/>
+        <v>77.387500000000003</v>
+      </c>
+      <c r="H87" s="58">
+        <f t="shared" si="22"/>
+        <v>154.77500000000001</v>
+      </c>
+      <c r="I87" s="96">
+        <v>31</v>
+      </c>
+      <c r="J87" s="94">
+        <v>46.45</v>
+      </c>
+      <c r="K87" s="53">
+        <v>77.48</v>
+      </c>
+      <c r="L87" s="97">
+        <v>151.66999999999999</v>
+      </c>
+      <c r="M87" s="55">
+        <f t="shared" si="23"/>
+        <v>116.94999999999999</v>
+      </c>
+      <c r="N87" s="56">
+        <v>11.16</v>
+      </c>
+      <c r="O87" s="57">
+        <v>17.02</v>
+      </c>
+      <c r="P87" s="57">
+        <v>29.12</v>
+      </c>
+      <c r="Q87" s="58">
+        <v>59.65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="61">
+        <v>20230905</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="54">
+        <v>70.66</v>
+      </c>
+      <c r="E88" s="55">
+        <f t="shared" si="19"/>
+        <v>7.0659999999999998</v>
+      </c>
+      <c r="F88" s="56">
+        <f t="shared" si="20"/>
+        <v>10.598999999999998</v>
+      </c>
+      <c r="G88" s="57">
+        <f t="shared" si="21"/>
+        <v>17.664999999999999</v>
+      </c>
+      <c r="H88" s="58">
+        <f t="shared" si="22"/>
+        <v>35.33</v>
+      </c>
+      <c r="I88" s="55">
+        <v>7.07</v>
+      </c>
+      <c r="J88" s="56">
+        <v>10.63</v>
+      </c>
+      <c r="K88" s="57">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="L88" s="58">
+        <v>34.5</v>
+      </c>
+      <c r="M88" s="55">
+        <f t="shared" si="23"/>
+        <v>54.22</v>
+      </c>
+      <c r="N88" s="56">
+        <v>5.37</v>
+      </c>
+      <c r="O88" s="57">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="P88" s="57">
+        <v>14.12</v>
+      </c>
+      <c r="Q88" s="58">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="53">
+        <v>20230905</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="54">
+        <v>43.43</v>
+      </c>
+      <c r="E89" s="55">
+        <f t="shared" si="19"/>
+        <v>4.343</v>
+      </c>
+      <c r="F89" s="56">
+        <f t="shared" si="20"/>
+        <v>6.5145</v>
+      </c>
+      <c r="G89" s="57">
+        <f t="shared" si="21"/>
+        <v>10.8575</v>
+      </c>
+      <c r="H89" s="58">
+        <f t="shared" si="22"/>
+        <v>21.715</v>
+      </c>
+      <c r="I89" s="55">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J89" s="56">
+        <v>6.52</v>
+      </c>
+      <c r="K89" s="57">
+        <v>10.85</v>
+      </c>
+      <c r="L89" s="58">
+        <v>21.2</v>
+      </c>
+      <c r="M89" s="55">
+        <f t="shared" si="23"/>
+        <v>33.340000000000003</v>
+      </c>
+      <c r="N89" s="56">
+        <v>3.5</v>
+      </c>
+      <c r="O89" s="57">
+        <v>5.37</v>
+      </c>
+      <c r="P89" s="57">
+        <v>8.1</v>
+      </c>
+      <c r="Q89" s="58">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="61">
+        <v>20230906</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="54">
+        <v>383.01</v>
+      </c>
+      <c r="E90" s="55">
+        <f t="shared" si="19"/>
+        <v>38.301000000000002</v>
+      </c>
+      <c r="F90" s="56">
+        <f t="shared" si="20"/>
+        <v>57.451499999999996</v>
+      </c>
+      <c r="G90" s="57">
+        <f t="shared" si="21"/>
+        <v>95.752499999999998</v>
+      </c>
+      <c r="H90" s="58">
+        <f t="shared" si="22"/>
+        <v>191.505</v>
+      </c>
+      <c r="I90" s="55">
+        <v>38.29</v>
+      </c>
+      <c r="J90" s="56">
+        <v>57.49</v>
+      </c>
+      <c r="K90" s="57">
+        <v>95.77</v>
+      </c>
+      <c r="L90" s="58">
+        <v>187.79</v>
+      </c>
+      <c r="M90" s="55">
+        <f t="shared" si="23"/>
+        <v>225.02</v>
+      </c>
+      <c r="N90" s="56">
+        <v>21.84</v>
+      </c>
+      <c r="O90" s="57">
+        <v>34.67</v>
+      </c>
+      <c r="P90" s="57">
+        <v>54.95</v>
+      </c>
+      <c r="Q90" s="58">
+        <v>113.56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="61">
+        <v>20230906</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="54">
+        <v>469.95</v>
+      </c>
+      <c r="E91" s="55">
+        <f t="shared" si="19"/>
+        <v>46.995000000000005</v>
+      </c>
+      <c r="F91" s="56">
+        <f t="shared" si="20"/>
+        <v>70.492499999999993</v>
+      </c>
+      <c r="G91" s="57">
+        <f t="shared" si="21"/>
+        <v>117.4875</v>
+      </c>
+      <c r="H91" s="58">
+        <f t="shared" si="22"/>
+        <v>234.97499999999999</v>
+      </c>
+      <c r="I91" s="55">
+        <v>47.01</v>
+      </c>
+      <c r="J91" s="56">
+        <v>70.38</v>
+      </c>
+      <c r="K91" s="57">
+        <v>117.47</v>
+      </c>
+      <c r="L91" s="58">
+        <v>215.52</v>
+      </c>
+      <c r="M91" s="55">
+        <f t="shared" si="23"/>
+        <v>278.02</v>
+      </c>
+      <c r="N91" s="56">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="O91" s="57">
+        <v>42.2</v>
+      </c>
+      <c r="P91" s="57">
+        <v>65.7</v>
+      </c>
+      <c r="Q91" s="58">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="61">
+        <v>20230905</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="54">
+        <v>79</v>
+      </c>
+      <c r="E92" s="55">
+        <f t="shared" si="19"/>
+        <v>7.9</v>
+      </c>
+      <c r="F92" s="56">
+        <f t="shared" si="20"/>
+        <v>11.85</v>
+      </c>
+      <c r="G92" s="57">
+        <f t="shared" si="21"/>
+        <v>19.75</v>
+      </c>
+      <c r="H92" s="58">
+        <f t="shared" si="22"/>
+        <v>39.5</v>
+      </c>
+      <c r="I92" s="55">
+        <v>7.9</v>
+      </c>
+      <c r="J92" s="56">
+        <v>11.85</v>
+      </c>
+      <c r="K92" s="57">
+        <v>19.75</v>
+      </c>
+      <c r="L92" s="58">
+        <v>38.64</v>
+      </c>
+      <c r="M92" s="55">
+        <f t="shared" si="23"/>
+        <v>60.5</v>
+      </c>
+      <c r="N92" s="56">
+        <v>6.06</v>
+      </c>
+      <c r="O92" s="57">
+        <v>8.59</v>
+      </c>
+      <c r="P92" s="57">
+        <v>15.51</v>
+      </c>
+      <c r="Q92" s="58">
+        <v>30.34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="61">
+        <v>20230905</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="54">
+        <v>8.52</v>
+      </c>
+      <c r="E93" s="55">
+        <f t="shared" si="19"/>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F93" s="56">
+        <f t="shared" si="20"/>
+        <v>1.2779999999999998</v>
+      </c>
+      <c r="G93" s="57">
+        <f t="shared" si="21"/>
+        <v>2.13</v>
+      </c>
+      <c r="H93" s="58">
+        <f t="shared" si="22"/>
+        <v>4.26</v>
+      </c>
+      <c r="I93" s="55">
+        <v>0.85</v>
+      </c>
+      <c r="J93" s="56">
+        <v>1.28</v>
+      </c>
+      <c r="K93" s="57">
+        <v>2.15</v>
+      </c>
+      <c r="L93" s="58">
+        <v>4.13</v>
+      </c>
+      <c r="M93" s="55">
+        <f t="shared" si="23"/>
+        <v>7.25</v>
+      </c>
+      <c r="N93" s="56">
+        <v>0.72</v>
+      </c>
+      <c r="O93" s="57">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P93" s="57">
+        <v>1.8</v>
+      </c>
+      <c r="Q93" s="58">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="61">
+        <v>20230906</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="54">
+        <v>53.06</v>
+      </c>
+      <c r="E94" s="55">
+        <f t="shared" si="19"/>
+        <v>5.3060000000000009</v>
+      </c>
+      <c r="F94" s="56">
+        <f t="shared" si="20"/>
+        <v>7.9589999999999996</v>
+      </c>
+      <c r="G94" s="57">
+        <f t="shared" si="21"/>
+        <v>13.265000000000001</v>
+      </c>
+      <c r="H94" s="58">
+        <f t="shared" si="22"/>
+        <v>26.53</v>
+      </c>
+      <c r="I94" s="55">
+        <v>5.36</v>
+      </c>
+      <c r="J94" s="56">
+        <v>7.81</v>
+      </c>
+      <c r="K94" s="57">
+        <v>13.29</v>
+      </c>
+      <c r="L94" s="58">
+        <v>26.18</v>
+      </c>
+      <c r="M94" s="55">
+        <f t="shared" si="23"/>
+        <v>41.21</v>
+      </c>
+      <c r="N94" s="56">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="O94" s="57">
+        <v>6.31</v>
+      </c>
+      <c r="P94" s="57">
+        <v>10.38</v>
+      </c>
+      <c r="Q94" s="58">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="53">
+        <v>20230906</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="54">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="E95" s="55">
+        <f t="shared" si="19"/>
+        <v>3.8630000000000004</v>
+      </c>
+      <c r="F95" s="56">
+        <f t="shared" si="20"/>
+        <v>5.7945000000000002</v>
+      </c>
+      <c r="G95" s="57">
+        <f t="shared" si="21"/>
+        <v>9.6575000000000006</v>
+      </c>
+      <c r="H95" s="58">
+        <f t="shared" si="22"/>
+        <v>19.315000000000001</v>
+      </c>
+      <c r="I95" s="55">
+        <v>3.86</v>
+      </c>
+      <c r="J95" s="56">
+        <v>7.75</v>
+      </c>
+      <c r="K95" s="57">
+        <v>9.69</v>
+      </c>
+      <c r="L95" s="58">
+        <v>18.93</v>
+      </c>
+      <c r="M95" s="55">
+        <f t="shared" si="23"/>
+        <v>27.240000000000002</v>
+      </c>
+      <c r="N95" s="56">
+        <v>2.86</v>
+      </c>
+      <c r="O95" s="57">
+        <v>3.62</v>
+      </c>
+      <c r="P95" s="57">
+        <v>7.33</v>
+      </c>
+      <c r="Q95" s="58">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="53">
+        <v>20230907</v>
+      </c>
+      <c r="C96" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="54">
+        <v>106.75</v>
+      </c>
+      <c r="E96" s="55">
+        <f t="shared" si="19"/>
+        <v>10.675000000000001</v>
+      </c>
+      <c r="F96" s="56">
+        <f t="shared" si="20"/>
+        <v>16.012499999999999</v>
+      </c>
+      <c r="G96" s="57">
+        <f t="shared" si="21"/>
+        <v>26.6875</v>
+      </c>
+      <c r="H96" s="58">
+        <f t="shared" si="22"/>
+        <v>53.375</v>
+      </c>
+      <c r="I96" s="55">
+        <v>10.7</v>
+      </c>
+      <c r="J96" s="56">
+        <v>16.03</v>
+      </c>
+      <c r="K96" s="57">
+        <v>26.7</v>
+      </c>
+      <c r="L96" s="58">
+        <v>51.53</v>
+      </c>
+      <c r="M96" s="55">
+        <f t="shared" si="23"/>
+        <v>85.16</v>
+      </c>
+      <c r="N96" s="56">
+        <v>9.51</v>
+      </c>
+      <c r="O96" s="57">
+        <v>13.93</v>
+      </c>
+      <c r="P96" s="57">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="Q96" s="58">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="61">
+        <v>20230907</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="102">
+        <v>176.14</v>
+      </c>
+      <c r="E97" s="55">
+        <f t="shared" si="19"/>
+        <v>17.614000000000001</v>
+      </c>
+      <c r="F97" s="56">
+        <f t="shared" si="20"/>
+        <v>26.420999999999996</v>
+      </c>
+      <c r="G97" s="57">
+        <f t="shared" si="21"/>
+        <v>44.034999999999997</v>
+      </c>
+      <c r="H97" s="58">
+        <f t="shared" si="22"/>
+        <v>88.07</v>
+      </c>
+      <c r="I97" s="55">
+        <v>17.55</v>
+      </c>
+      <c r="J97" s="56">
+        <v>26.56</v>
+      </c>
+      <c r="K97" s="57">
+        <v>43.6</v>
+      </c>
+      <c r="L97" s="58">
+        <v>88.43</v>
+      </c>
+      <c r="M97" s="55">
+        <f t="shared" si="23"/>
+        <v>110.08</v>
+      </c>
+      <c r="N97" s="56">
+        <v>10.44</v>
+      </c>
+      <c r="O97" s="57">
+        <v>17</v>
+      </c>
+      <c r="P97" s="57">
+        <v>28.32</v>
+      </c>
+      <c r="Q97" s="58">
+        <v>54.32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="61">
+        <v>20230911</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="98">
+        <v>112.83</v>
+      </c>
+      <c r="E98" s="55">
+        <f t="shared" si="19"/>
+        <v>11.283000000000001</v>
+      </c>
+      <c r="F98" s="56">
+        <f t="shared" si="20"/>
+        <v>16.924499999999998</v>
+      </c>
+      <c r="G98" s="57">
+        <f t="shared" si="21"/>
+        <v>28.2075</v>
+      </c>
+      <c r="H98" s="58">
+        <f t="shared" si="22"/>
+        <v>56.414999999999999</v>
+      </c>
+      <c r="I98" s="99">
+        <v>11.28</v>
+      </c>
+      <c r="J98" s="100">
+        <v>16.91</v>
+      </c>
+      <c r="K98" s="61">
+        <v>28.39</v>
+      </c>
+      <c r="L98" s="101">
+        <v>54.5</v>
+      </c>
+      <c r="M98" s="55">
+        <f t="shared" si="23"/>
+        <v>40.49</v>
+      </c>
+      <c r="N98" s="56">
+        <v>3.99</v>
+      </c>
+      <c r="O98" s="57">
+        <v>7.04</v>
+      </c>
+      <c r="P98" s="57">
+        <v>10.1</v>
+      </c>
+      <c r="Q98" s="58">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="61">
+        <v>20230911</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="95">
+        <v>201.22</v>
+      </c>
+      <c r="E99" s="55">
+        <f t="shared" si="19"/>
+        <v>20.122</v>
+      </c>
+      <c r="F99" s="56">
+        <f t="shared" si="20"/>
+        <v>30.183</v>
+      </c>
+      <c r="G99" s="57">
+        <f t="shared" si="21"/>
+        <v>50.305</v>
+      </c>
+      <c r="H99" s="58">
+        <f t="shared" si="22"/>
+        <v>100.61</v>
+      </c>
+      <c r="I99" s="96">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J99" s="94">
+        <v>30.25</v>
+      </c>
+      <c r="K99" s="53">
+        <v>50.33</v>
+      </c>
+      <c r="L99" s="97">
+        <v>94.25</v>
+      </c>
+      <c r="M99" s="55">
+        <f t="shared" si="23"/>
+        <v>53.97</v>
+      </c>
+      <c r="N99" s="56">
+        <v>7.01</v>
+      </c>
+      <c r="O99" s="57">
+        <v>10.89</v>
+      </c>
+      <c r="P99" s="57">
+        <v>11.92</v>
+      </c>
+      <c r="Q99" s="58">
+        <v>24.15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="I28:L28"/>
     <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="N79:Q79"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="M50:M73">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.67" right="0.37" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3711,10 +6475,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80EB36B-4C96-7D41-A51C-74AD1A1F601D}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3777,31 +6542,31 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="39">
         <v>11.06</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="39">
         <v>1.45</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="39">
         <v>1.66</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="39">
         <v>2.77</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="39">
         <v>5.53</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="39">
         <v>0.25</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="39">
         <v>0.49</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="39">
         <v>0.75</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2" s="39">
         <v>1.34</v>
       </c>
     </row>
@@ -3818,31 +6583,31 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="39">
         <v>14.45</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="39">
         <v>1.45</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="39">
         <v>2.17</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="39">
         <v>3.51</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="39">
         <v>7.14</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="39">
         <v>0.43</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="39">
         <v>0.68</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="39">
         <v>1.0900000000000001</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="39">
         <v>2.0699999999999998</v>
       </c>
     </row>
@@ -3859,31 +6624,31 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="39">
         <v>25.8</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="39">
         <v>2.58</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="39">
         <v>3.87</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="39">
         <v>6.37</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="39">
         <v>12.8</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="39">
         <v>0.63</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="39">
         <v>1.05</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="39">
         <v>2.11</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="39">
         <v>2.39</v>
       </c>
     </row>
@@ -3900,31 +6665,31 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="39">
         <v>16.55</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="39">
         <v>1.66</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="39">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="39">
         <v>4.07</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="39">
         <v>8.1300000000000008</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="39">
         <v>0.48</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="39">
         <v>0.77</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="39">
         <v>1.23</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="39">
         <v>2.58</v>
       </c>
     </row>
@@ -3941,31 +6706,31 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="39">
         <v>33.75</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="39">
         <v>3.38</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="39">
         <v>5.0599999999999996</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="39">
         <v>8.42</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="39">
         <v>16.8</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="39">
         <v>1.21</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="39">
         <v>1.56</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="39">
         <v>2.61</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="39">
         <v>5.39</v>
       </c>
     </row>
@@ -3982,31 +6747,31 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="39">
         <v>11.83</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="39">
         <v>1.18</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="39">
         <v>1.77</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="39">
         <v>2.96</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="39">
         <v>5.9</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="39">
         <v>0.46</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="39">
         <v>0.74</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="39">
         <v>1.1399999999999999</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="39">
         <v>2.27</v>
       </c>
     </row>
@@ -4023,31 +6788,31 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="39">
         <v>19.079999999999998</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="39">
         <v>1.91</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="39">
         <v>2.86</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="39">
         <v>4.7699999999999996</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="39">
         <v>9.51</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="39">
         <v>0.62</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="39">
         <v>0.81</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="39">
         <v>1.3</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="39">
         <v>2.9</v>
       </c>
     </row>
@@ -4064,31 +6829,31 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="39">
         <v>54</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="39">
         <v>5.4</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="39">
         <v>8.1</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="39">
         <v>13.5</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="39">
         <v>26</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="39">
         <v>1.07</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="39">
         <v>2.7</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="39">
         <v>4.16</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="39">
         <v>8.11</v>
       </c>
     </row>
@@ -4105,31 +6870,31 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="39">
         <v>31.41</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="39">
         <v>3.14</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="39">
         <v>4.7</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="39">
         <v>7.79</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="39">
         <v>15.59</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="39">
         <v>1.08</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="39">
         <v>1.48</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="39">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="39">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4146,31 +6911,31 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="39">
         <v>44.22</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="39">
         <v>4.42</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="39">
         <v>6.6</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="39">
         <v>10.88</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="39">
         <v>21.36</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="39">
         <v>0.99</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="39">
         <v>1.62</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="39">
         <v>2.75</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="39">
         <v>5.86</v>
       </c>
     </row>
@@ -4187,31 +6952,31 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="39">
         <v>51.48</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="39">
         <v>4.83</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="39">
         <v>7.72</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="39">
         <v>12.87</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="39">
         <v>25.74</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="39">
         <v>1.43</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="39">
         <v>2.25</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="39">
         <v>3.89</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="39">
         <v>7.93</v>
       </c>
     </row>
@@ -4228,31 +6993,31 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="39">
         <v>12.23</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="39">
         <v>1.22</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="39">
         <v>1.83</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="39">
         <v>3.06</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="39">
         <v>6</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="39">
         <v>0.54</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="39">
         <v>0.79</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="39">
         <v>1.28</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="39">
         <v>2.8</v>
       </c>
     </row>
@@ -4269,31 +7034,31 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="39">
         <v>67.87</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="39">
         <v>6.79</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="39">
         <v>10.18</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="39">
         <v>16.97</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="39">
         <v>33.1</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="39">
         <v>1.34</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="39">
         <v>2.16</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="39">
         <v>4.9800000000000004</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="39">
         <v>9.17</v>
       </c>
     </row>
@@ -4310,31 +7075,31 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="39">
         <v>11.39</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="39">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="39">
         <v>1.71</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="39">
         <v>2.85</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="39">
         <v>5.69</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="39">
         <v>0.66</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="39">
         <v>0.38</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="39">
         <v>2.5499999999999998</v>
       </c>
     </row>
@@ -4351,31 +7116,31 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="39">
         <v>5.5</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="39">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="39">
         <v>0.83</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="39">
         <v>1.38</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="39">
         <v>2.74</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="39">
         <v>0.21</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="39">
         <v>0.35</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="39">
         <v>0.51</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="39">
         <v>0.99</v>
       </c>
     </row>
@@ -4392,31 +7157,31 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="39">
         <v>54.02</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="39">
         <v>5.4</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="39">
         <v>8.1</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="39">
         <v>13.51</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="39">
         <v>26.56</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="39">
         <v>1.55</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="39">
         <v>2.06</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="39">
         <v>3.46</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="39">
         <v>6.7</v>
       </c>
     </row>
@@ -5157,6 +7922,1605 @@
       </c>
       <c r="M35">
         <v>8.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36">
+        <v>20230613</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="39">
+        <v>202.56</v>
+      </c>
+      <c r="F36">
+        <v>17.53</v>
+      </c>
+      <c r="G36">
+        <v>30.36</v>
+      </c>
+      <c r="H36">
+        <v>50.46</v>
+      </c>
+      <c r="I36">
+        <v>101.29</v>
+      </c>
+      <c r="J36">
+        <v>3.05</v>
+      </c>
+      <c r="K36">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L36">
+        <v>18.7</v>
+      </c>
+      <c r="M36">
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>20230613</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="39">
+        <v>45.6</v>
+      </c>
+      <c r="F37">
+        <v>4.53</v>
+      </c>
+      <c r="G37">
+        <v>6.07</v>
+      </c>
+      <c r="H37">
+        <v>11.3</v>
+      </c>
+      <c r="I37">
+        <v>22.72</v>
+      </c>
+      <c r="J37">
+        <v>2.59</v>
+      </c>
+      <c r="K37">
+        <v>3.6</v>
+      </c>
+      <c r="L37">
+        <v>4.72</v>
+      </c>
+      <c r="M37">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38">
+        <v>20230613</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="39">
+        <v>95.46</v>
+      </c>
+      <c r="F38">
+        <v>9.52</v>
+      </c>
+      <c r="G38">
+        <v>14.28</v>
+      </c>
+      <c r="H38">
+        <v>23.41</v>
+      </c>
+      <c r="I38">
+        <v>46.34</v>
+      </c>
+      <c r="J38">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K38">
+        <v>2.11</v>
+      </c>
+      <c r="L38">
+        <v>3.59</v>
+      </c>
+      <c r="M38">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39">
+        <v>20230613</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="39">
+        <v>59.63</v>
+      </c>
+      <c r="F39">
+        <v>5.95</v>
+      </c>
+      <c r="G39">
+        <v>8.92</v>
+      </c>
+      <c r="H39">
+        <v>14.95</v>
+      </c>
+      <c r="I39">
+        <v>28.72</v>
+      </c>
+      <c r="J39">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K39">
+        <v>2.34</v>
+      </c>
+      <c r="L39">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="M39">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>20230613</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="39">
+        <v>93.46</v>
+      </c>
+      <c r="F40">
+        <v>8.02</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>23.364999999999998</v>
+      </c>
+      <c r="I40">
+        <v>46.73</v>
+      </c>
+      <c r="J40">
+        <v>3.72</v>
+      </c>
+      <c r="K40">
+        <v>5.62</v>
+      </c>
+      <c r="L40">
+        <v>8.56</v>
+      </c>
+      <c r="M40">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <v>20230613</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="39">
+        <v>109.24</v>
+      </c>
+      <c r="F41">
+        <v>10.81</v>
+      </c>
+      <c r="G41">
+        <v>16.14</v>
+      </c>
+      <c r="H41">
+        <v>27.13</v>
+      </c>
+      <c r="I41">
+        <v>54.24</v>
+      </c>
+      <c r="J41">
+        <v>3.37</v>
+      </c>
+      <c r="K41">
+        <v>5.78</v>
+      </c>
+      <c r="L41">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="M41">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <v>20230613</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="39">
+        <v>117.88</v>
+      </c>
+      <c r="F42">
+        <v>11.26</v>
+      </c>
+      <c r="G42">
+        <v>17.52</v>
+      </c>
+      <c r="H42">
+        <v>29.14</v>
+      </c>
+      <c r="I42">
+        <v>58.28</v>
+      </c>
+      <c r="J42">
+        <v>5.77</v>
+      </c>
+      <c r="K42">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="L42">
+        <v>13.22</v>
+      </c>
+      <c r="M42">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>20230613</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="39">
+        <v>52.36</v>
+      </c>
+      <c r="F43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G43">
+        <v>7.77</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>26.2</v>
+      </c>
+      <c r="J43">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="K43">
+        <v>4.01</v>
+      </c>
+      <c r="L43">
+        <v>6.14</v>
+      </c>
+      <c r="M43">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>20230613</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="39">
+        <v>37.92</v>
+      </c>
+      <c r="F44">
+        <v>3.71</v>
+      </c>
+      <c r="G44">
+        <v>5.69</v>
+      </c>
+      <c r="H44">
+        <v>9.48</v>
+      </c>
+      <c r="I44">
+        <v>17.23</v>
+      </c>
+      <c r="J44">
+        <v>1.32</v>
+      </c>
+      <c r="K44">
+        <v>1.88</v>
+      </c>
+      <c r="L44">
+        <v>2.8</v>
+      </c>
+      <c r="M44">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>20230613</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="39">
+        <v>54.82</v>
+      </c>
+      <c r="F45">
+        <v>5.49</v>
+      </c>
+      <c r="G45">
+        <v>8.18</v>
+      </c>
+      <c r="H45">
+        <v>13.6</v>
+      </c>
+      <c r="I45">
+        <v>25.99</v>
+      </c>
+      <c r="J45">
+        <v>2.75</v>
+      </c>
+      <c r="K45">
+        <v>3.03</v>
+      </c>
+      <c r="L45">
+        <v>6.8</v>
+      </c>
+      <c r="M45">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <v>20230612</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="39">
+        <v>104.68</v>
+      </c>
+      <c r="F46">
+        <v>10.52</v>
+      </c>
+      <c r="G46">
+        <v>15.71</v>
+      </c>
+      <c r="H46">
+        <v>26.07</v>
+      </c>
+      <c r="I46">
+        <v>50.94</v>
+      </c>
+      <c r="J46">
+        <v>3.43</v>
+      </c>
+      <c r="K46">
+        <v>4.3</v>
+      </c>
+      <c r="L46">
+        <v>10.24</v>
+      </c>
+      <c r="M46">
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <v>20230612</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="39">
+        <v>162.54</v>
+      </c>
+      <c r="F47">
+        <v>13.05</v>
+      </c>
+      <c r="G47">
+        <v>24.38</v>
+      </c>
+      <c r="H47">
+        <v>40.64</v>
+      </c>
+      <c r="I47">
+        <v>81.25</v>
+      </c>
+      <c r="J47">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K47">
+        <v>7.78</v>
+      </c>
+      <c r="L47">
+        <v>13.82</v>
+      </c>
+      <c r="M47">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48">
+        <v>20230613</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="39">
+        <v>26.81</v>
+      </c>
+      <c r="F48">
+        <v>2.67</v>
+      </c>
+      <c r="G48">
+        <v>3.97</v>
+      </c>
+      <c r="H48">
+        <v>6.66</v>
+      </c>
+      <c r="I48">
+        <v>12.68</v>
+      </c>
+      <c r="J48">
+        <v>1.24</v>
+      </c>
+      <c r="K48">
+        <v>1.84</v>
+      </c>
+      <c r="L48">
+        <v>3.39</v>
+      </c>
+      <c r="M48">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49">
+        <v>20230613</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="39">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="F49">
+        <v>3.9</v>
+      </c>
+      <c r="G49">
+        <v>5.96</v>
+      </c>
+      <c r="H49">
+        <v>9.98</v>
+      </c>
+      <c r="I49">
+        <v>19.14</v>
+      </c>
+      <c r="J49">
+        <v>1.75</v>
+      </c>
+      <c r="K49">
+        <v>2.62</v>
+      </c>
+      <c r="L49">
+        <v>4.67</v>
+      </c>
+      <c r="M49">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>20230612</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="39">
+        <v>63.13</v>
+      </c>
+      <c r="F50">
+        <v>4.8</v>
+      </c>
+      <c r="G50">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H50">
+        <v>15.77</v>
+      </c>
+      <c r="I50">
+        <v>31.58</v>
+      </c>
+      <c r="J50">
+        <v>2.08</v>
+      </c>
+      <c r="K50">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="L50">
+        <v>6.49</v>
+      </c>
+      <c r="M50">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <v>20230612</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="39">
+        <v>99.71</v>
+      </c>
+      <c r="F51">
+        <v>8.81</v>
+      </c>
+      <c r="G51">
+        <v>14.4</v>
+      </c>
+      <c r="H51">
+        <v>24.95</v>
+      </c>
+      <c r="I51">
+        <v>49.85</v>
+      </c>
+      <c r="J51">
+        <v>3.4</v>
+      </c>
+      <c r="K51">
+        <v>5.48</v>
+      </c>
+      <c r="L51">
+        <v>10.52</v>
+      </c>
+      <c r="M51">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52">
+        <v>20230613</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="39">
+        <v>70.19</v>
+      </c>
+      <c r="F52">
+        <v>6.95</v>
+      </c>
+      <c r="G52">
+        <v>10.6</v>
+      </c>
+      <c r="H52">
+        <v>17.41</v>
+      </c>
+      <c r="I52">
+        <v>34.53</v>
+      </c>
+      <c r="J52">
+        <v>3.42</v>
+      </c>
+      <c r="K52">
+        <v>4.7</v>
+      </c>
+      <c r="L52">
+        <v>7.37</v>
+      </c>
+      <c r="M52">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53">
+        <v>20230613</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="39">
+        <v>90.02</v>
+      </c>
+      <c r="F53">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G53">
+        <v>13.44</v>
+      </c>
+      <c r="H53">
+        <v>21.51</v>
+      </c>
+      <c r="I53">
+        <v>44.96</v>
+      </c>
+      <c r="J53">
+        <v>3.3</v>
+      </c>
+      <c r="K53">
+        <v>6.14</v>
+      </c>
+      <c r="L53">
+        <v>10.6</v>
+      </c>
+      <c r="M53">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54">
+        <v>20230613</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="39">
+        <v>156.69</v>
+      </c>
+      <c r="F54">
+        <v>15.56</v>
+      </c>
+      <c r="G54">
+        <v>23.38</v>
+      </c>
+      <c r="H54">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="I54">
+        <v>78.02</v>
+      </c>
+      <c r="J54">
+        <v>4.62</v>
+      </c>
+      <c r="K54">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="L54">
+        <v>13.79</v>
+      </c>
+      <c r="M54">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55">
+        <v>20230613</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>82.64</v>
+      </c>
+      <c r="F55">
+        <v>5.65</v>
+      </c>
+      <c r="G55">
+        <v>12.23</v>
+      </c>
+      <c r="H55">
+        <v>20.56</v>
+      </c>
+      <c r="I55">
+        <v>41.16</v>
+      </c>
+      <c r="J55">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K55">
+        <v>4.66</v>
+      </c>
+      <c r="L55">
+        <v>7.52</v>
+      </c>
+      <c r="M55">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56">
+        <v>20230907</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="F56">
+        <v>6.91</v>
+      </c>
+      <c r="G56">
+        <v>10.31</v>
+      </c>
+      <c r="H56">
+        <v>17.09</v>
+      </c>
+      <c r="I56">
+        <v>33.04</v>
+      </c>
+      <c r="J56">
+        <v>5.64</v>
+      </c>
+      <c r="K56">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L56">
+        <v>14.32</v>
+      </c>
+      <c r="M56">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57">
+        <v>20230904</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>90.52</v>
+      </c>
+      <c r="F57">
+        <v>9.06</v>
+      </c>
+      <c r="G57">
+        <v>13.61</v>
+      </c>
+      <c r="H57">
+        <v>22.59</v>
+      </c>
+      <c r="I57">
+        <v>44.42</v>
+      </c>
+      <c r="J57">
+        <v>5.83</v>
+      </c>
+      <c r="K57">
+        <v>9.43</v>
+      </c>
+      <c r="L57">
+        <v>15.03</v>
+      </c>
+      <c r="M57">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58">
+        <v>20230904</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>36.56</v>
+      </c>
+      <c r="F58">
+        <v>3.66</v>
+      </c>
+      <c r="G58">
+        <v>5.47</v>
+      </c>
+      <c r="H58">
+        <v>9.14</v>
+      </c>
+      <c r="I58">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="J58">
+        <v>2.63</v>
+      </c>
+      <c r="K58">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="L58">
+        <v>7.48</v>
+      </c>
+      <c r="M58">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59">
+        <v>20230907</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>67.03</v>
+      </c>
+      <c r="F59">
+        <v>6.23</v>
+      </c>
+      <c r="G59">
+        <v>10.06</v>
+      </c>
+      <c r="H59">
+        <v>16.77</v>
+      </c>
+      <c r="I59">
+        <v>33.51</v>
+      </c>
+      <c r="J59">
+        <v>4.7</v>
+      </c>
+      <c r="K59">
+        <v>8.83</v>
+      </c>
+      <c r="L59">
+        <v>14.56</v>
+      </c>
+      <c r="M59">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60">
+        <v>20230907</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>88.17</v>
+      </c>
+      <c r="F60">
+        <v>8.85</v>
+      </c>
+      <c r="G60">
+        <v>13.23</v>
+      </c>
+      <c r="H60">
+        <v>22.04</v>
+      </c>
+      <c r="I60">
+        <v>43</v>
+      </c>
+      <c r="J60">
+        <v>7.55</v>
+      </c>
+      <c r="K60">
+        <v>11.29</v>
+      </c>
+      <c r="L60">
+        <v>19.23</v>
+      </c>
+      <c r="M60">
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61">
+        <v>20230911</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>180.3</v>
+      </c>
+      <c r="F61">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="G61">
+        <v>27</v>
+      </c>
+      <c r="H61">
+        <v>45.08</v>
+      </c>
+      <c r="I61">
+        <v>87.83</v>
+      </c>
+      <c r="J61">
+        <v>5.93</v>
+      </c>
+      <c r="K61">
+        <v>8.99</v>
+      </c>
+      <c r="L61">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="M61">
+        <v>32.74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62">
+        <v>20230911</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>309.55</v>
+      </c>
+      <c r="F62">
+        <v>31</v>
+      </c>
+      <c r="G62">
+        <v>46.45</v>
+      </c>
+      <c r="H62">
+        <v>77.48</v>
+      </c>
+      <c r="I62">
+        <v>151.66999999999999</v>
+      </c>
+      <c r="J62">
+        <v>11.16</v>
+      </c>
+      <c r="K62">
+        <v>17.02</v>
+      </c>
+      <c r="L62">
+        <v>29.12</v>
+      </c>
+      <c r="M62">
+        <v>59.65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63">
+        <v>20230905</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>70.66</v>
+      </c>
+      <c r="F63">
+        <v>7.07</v>
+      </c>
+      <c r="G63">
+        <v>10.63</v>
+      </c>
+      <c r="H63">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="I63">
+        <v>34.5</v>
+      </c>
+      <c r="J63">
+        <v>5.37</v>
+      </c>
+      <c r="K63">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="L63">
+        <v>14.12</v>
+      </c>
+      <c r="M63">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64">
+        <v>20230905</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>43.43</v>
+      </c>
+      <c r="F64">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G64">
+        <v>6.52</v>
+      </c>
+      <c r="H64">
+        <v>10.85</v>
+      </c>
+      <c r="I64">
+        <v>21.2</v>
+      </c>
+      <c r="J64">
+        <v>3.5</v>
+      </c>
+      <c r="K64">
+        <v>5.37</v>
+      </c>
+      <c r="L64">
+        <v>8.1</v>
+      </c>
+      <c r="M64">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65">
+        <v>20230906</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>383.01</v>
+      </c>
+      <c r="F65">
+        <v>38.29</v>
+      </c>
+      <c r="G65">
+        <v>57.49</v>
+      </c>
+      <c r="H65">
+        <v>95.77</v>
+      </c>
+      <c r="I65">
+        <v>187.79</v>
+      </c>
+      <c r="J65">
+        <v>21.84</v>
+      </c>
+      <c r="K65">
+        <v>34.67</v>
+      </c>
+      <c r="L65">
+        <v>54.95</v>
+      </c>
+      <c r="M65">
+        <v>113.56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66">
+        <v>20230906</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>469.95</v>
+      </c>
+      <c r="F66">
+        <v>47.01</v>
+      </c>
+      <c r="G66">
+        <v>70.38</v>
+      </c>
+      <c r="H66">
+        <v>117.47</v>
+      </c>
+      <c r="I66">
+        <v>215.52</v>
+      </c>
+      <c r="J66">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="K66">
+        <v>42.2</v>
+      </c>
+      <c r="L66">
+        <v>65.7</v>
+      </c>
+      <c r="M66">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67">
+        <v>20230905</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>79</v>
+      </c>
+      <c r="F67">
+        <v>7.9</v>
+      </c>
+      <c r="G67">
+        <v>11.85</v>
+      </c>
+      <c r="H67">
+        <v>19.75</v>
+      </c>
+      <c r="I67">
+        <v>38.64</v>
+      </c>
+      <c r="J67">
+        <v>6.06</v>
+      </c>
+      <c r="K67">
+        <v>8.59</v>
+      </c>
+      <c r="L67">
+        <v>15.51</v>
+      </c>
+      <c r="M67">
+        <v>30.34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68">
+        <v>20230905</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>8.52</v>
+      </c>
+      <c r="F68">
+        <v>0.85</v>
+      </c>
+      <c r="G68">
+        <v>1.28</v>
+      </c>
+      <c r="H68">
+        <v>2.15</v>
+      </c>
+      <c r="I68">
+        <v>4.13</v>
+      </c>
+      <c r="J68">
+        <v>0.72</v>
+      </c>
+      <c r="K68">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L68">
+        <v>1.8</v>
+      </c>
+      <c r="M68">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69">
+        <v>20230906</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>53.06</v>
+      </c>
+      <c r="F69">
+        <v>5.36</v>
+      </c>
+      <c r="G69">
+        <v>7.81</v>
+      </c>
+      <c r="H69">
+        <v>13.29</v>
+      </c>
+      <c r="I69">
+        <v>26.18</v>
+      </c>
+      <c r="J69">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K69">
+        <v>6.31</v>
+      </c>
+      <c r="L69">
+        <v>10.38</v>
+      </c>
+      <c r="M69">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70">
+        <v>20230906</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="F70">
+        <v>3.86</v>
+      </c>
+      <c r="G70">
+        <v>7.75</v>
+      </c>
+      <c r="H70">
+        <v>9.69</v>
+      </c>
+      <c r="I70">
+        <v>18.93</v>
+      </c>
+      <c r="J70">
+        <v>2.86</v>
+      </c>
+      <c r="K70">
+        <v>3.62</v>
+      </c>
+      <c r="L70">
+        <v>7.33</v>
+      </c>
+      <c r="M70">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71">
+        <v>20230907</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>106.75</v>
+      </c>
+      <c r="F71">
+        <v>10.7</v>
+      </c>
+      <c r="G71">
+        <v>16.03</v>
+      </c>
+      <c r="H71">
+        <v>26.7</v>
+      </c>
+      <c r="I71">
+        <v>51.53</v>
+      </c>
+      <c r="J71">
+        <v>9.51</v>
+      </c>
+      <c r="K71">
+        <v>13.93</v>
+      </c>
+      <c r="L71">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="M71">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72">
+        <v>20230907</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>176.14</v>
+      </c>
+      <c r="F72">
+        <v>17.55</v>
+      </c>
+      <c r="G72">
+        <v>26.56</v>
+      </c>
+      <c r="H72">
+        <v>43.6</v>
+      </c>
+      <c r="I72">
+        <v>88.43</v>
+      </c>
+      <c r="J72">
+        <v>10.44</v>
+      </c>
+      <c r="K72">
+        <v>17</v>
+      </c>
+      <c r="L72">
+        <v>28.32</v>
+      </c>
+      <c r="M72">
+        <v>54.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73">
+        <v>20230911</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>112.83</v>
+      </c>
+      <c r="F73">
+        <v>11.28</v>
+      </c>
+      <c r="G73">
+        <v>16.91</v>
+      </c>
+      <c r="H73">
+        <v>28.39</v>
+      </c>
+      <c r="I73">
+        <v>54.5</v>
+      </c>
+      <c r="J73">
+        <v>3.99</v>
+      </c>
+      <c r="K73">
+        <v>7.04</v>
+      </c>
+      <c r="L73">
+        <v>10.1</v>
+      </c>
+      <c r="M73">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74">
+        <v>20230911</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>201.22</v>
+      </c>
+      <c r="F74">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="G74">
+        <v>30.25</v>
+      </c>
+      <c r="H74">
+        <v>50.33</v>
+      </c>
+      <c r="I74">
+        <v>94.25</v>
+      </c>
+      <c r="J74">
+        <v>7.01</v>
+      </c>
+      <c r="K74">
+        <v>10.89</v>
+      </c>
+      <c r="L74">
+        <v>11.92</v>
+      </c>
+      <c r="M74">
+        <v>24.15</v>
       </c>
     </row>
   </sheetData>
